--- a/Original/CN/Dialog/dialog.xlsx
+++ b/Original/CN/Dialog/dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="1"/>
   <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="551">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1239,6 +1239,138 @@
 I hear that a lot of the seediest and creepiest people head to Derphy.</t>
   </si>
   <si>
+    <t xml:space="preserve">foxtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちはたくさんの米を作って、人間に売ってい{る}。
+キズアミ様はこの村の守護神{だ}。
+この村の川は、ラーナの近くの山から流れてくるん{だよ}。
+私たちの祖先は、この丘に棚田を切り開いて稲作を始め{た}。
+村の者は皆、書道にたしなみが{ある}。
+書道に興味があれば、雑貨屋で書道道具を買える{よ}。
+もし田んぼのそばで金色の鬼火を見かけたら、すぐにキヌに知らせて{くれ}。あれは人を迷わせる邪悪な霊な{のだ}。
+この村では大根やネギのような野菜もたくさん育てて{いる}。
+キヌは米を育てるのが本当に上手{だ}。
+キズアミ様を信仰する者だけが、この村の霊的な力を感じ取れる{のだ}。
+ラーナへ向かう旅人は、山道に挑む前にこの村の宿で一休みするん{だよ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We produce far more rice than we need, so we sell the surplus to humans.
+Lord Kizuami is the patron deity of this village.
+The river that flows through this village begins in the mountains, near Larna.
+Our ancestors cut terraces into these foothills to grow rice on.
+It's important that everyone in the village knows how to write in the traditional way.
+If you're interested in calligraphy, the general store sells the tools.
+If you see any golden will-o'-wisps by the rice paddies, tell Kinu immediately. They're evil spirits that will lead you astray.
+This village also plant many vegetables like radishes and leeks.
+Kinu makes rice cultivation look so easy.
+Only those faithful to Lord Kizuami are able to perceive the village's spiritual energy.
+People traveling to Larna will sometimes rest in the village inn before ascending the mountain pass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foxtown_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">村の外に出るのは怖い{よ}。人間たちは平気で耳や尻尾に触れてくるから{ね}。
+ホロメ様はこの村の皆を見守ってくださってい{る}。
+観光客が村の雰囲気を壊しているのが嫌{だな}。
+夜に一人で桜の木のそばにいると、金色の九尾の狐が見えると噂されてい{る}。
+この村の者は幼い頃から剣術を学んで{いる}。
+この村で売っている乳は最高な{のだ}！
+ミフは南から稲を運んできて、ここで酒を仕込む{のだ}。
+桜花酒は女神への良い供物{だ}。
+ミズナさんは本当に豊かな体をして{いる}。大きくて包容力があって最高{だ}！
+ミサキとミズナのおかげで、この村は安全で繁栄して{いる}。
+この村の空気は北地の中でも暖かく穏やか{だ}。神木は冬でも葉を落とさ{ない}。
+桜花酒はこの村の名物{だ}。
+滝の下で瞑想すると、体と心が邪悪から清められ{のだ}。
+ホロメ様を信仰する者だけが、この村の本当の美しさを目にすることができる{のだ}。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's scary to go out of the village. Humans will touch our ears and tails as they please.
+Lady Horome watches over everyone in this village.
+All the tourists are ruining our village's atmosphere.
+It's said that if you're alone by the cherry tree at night, you might see a golden nine-tailed fox.
+Everyone in this village is trained in swordsmanship from young.
+The milk sold in this village is the best!
+The mifu bring rice from the south all the way here to be brewed.
+Cherry blossom sake is a pleasing offering for both our gods.
+Mizuno has a really robust body, doesn't she? That's right... big and robust.
+Between Misaki and Mizuno's hard work, this village is safe and prosperous.
+Despite being this far north, the air in this village is warm and mild. Even the sacred tree doesn't shed its leaves in winter.
+Cherry blossom sake is our village's specialty.
+Meditating beneath the waterfall purifies both the body and mind of evil influences.
+Only those faithful to Lady Horome are able to see the village's true beauty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specwing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここは街道から遠く離れているので、ほとんどの物資は空から届けられる{のだ}。
+スペクウィングには多くの冒険者が集まり、ネフィアに挑む前にパーティーを組んで{いる}。
+スペクウィングは、ノースティリスの荒野に向かう多くの冒険者にとって、最後の補給地点なん{だよ}。
+この周辺には危険なネフィアが多い{よ}。
+大使館から特別な許可がないと探索できないネフィアが近くにあるそう{だ}。
+この村はもともと妖精たちが住み着いた場所{だ}。
+冒険者たちが訪れるようになって、この村も大きくなった{よ}。
+木の上で続く終わりなき宴、それが私たちが冒険者からお金を巻き上げる方法な{のだ}。
+スペクウィングの創設者は青いナスの衣装を着た妖精だったらしい{よ}。
+妖精の魔法のおかげで、この木は人々が住んでいるにもかかわらず元気に育ってい{る}。
+私たちが木を世話し、木も私たちを守ってくれる{のだ}。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're very far from the roads, so most goods arrive by air.
+Many adventurers gather in Specwing to form parties before venturing into nefia.
+Specwing is the last stop for supplies for many adventuring parties before entering the remote wilderness of North Tyris.
+Nefia in the surrounding region are more dangerous than usual.
+I've heard there's one peculior Nefia nearby where you need a special license from the Embassy to explore it.
+This village was originally settled by faries.
+Everything in this village was enlarged when adventurers started to visit.
+The never-ending revelry in the treetops is how we part adventurers from their money.
+It is said Specwing's founder was a fairy who dressed in a blue eggplant costume.
+Fairy magic allows the tree to grow and thrive despite having people living in it.
+We take care of it, and it takes care of us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village_exile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#raceが何故この村に…？
+#raceが何をしに来た{のだ}？
+結界がこの村をモンスターや好奇心の目から守ってい{る}。
+時々、私たちは外の世界から研究材料を手に入れる必要が{ある}。
+私が大切に思っていた人々はとうに亡くなり、今では外の世界で私を覚えている者など誰もいない{のだ}。
+私たちは神々の禁忌を破り、大いなる父に仕える労働を課せられて{いる}。
+長老ビチェリンは、自分がどれだけの歳月を生きてきたのか、あまり話したがらないよう{だ}。
+もし君が灰のような味のしない食べ物を持ってきてくれるなら、皆が喜ぶ{だろう}。
+この村には食材が不足してい{る}。
+私たちが自然な死を迎えることは{ない}。
+私たちが解放される日は、大いなる父が我々の罪がすべて償われたと判断した時だけ{だ}。
+私たちのもつ知識は、外の世界に広まるには危険すぎるもの{だ}。
+大いなる父は常に私たちを見守って{いる}。
+大いなる父は私たちの償いを監督し、その運命から逃れることはでき{ない}。
+時が経つにつれ、物質的なことに私たちはあまり関心を持たなくなった{のだ}。
+#raceよ、君の前にいるのは千年以上生きた追放者{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A #race in this village...?
+What brings a #race to this village? 
+The barrier shields the village from monsters and curious eyes.
+Sometimes, we must acquire research materials from the outside world.
+Anyone I cared for passed ages ago. Now no one in the outside world remembers me...
+For our sins against the gods, we labor in service of our great father.
+Elder Bicerin doesn't talk much about how old he is.
+Everyone is hoping you'll bring food that doesn't taste like ashes.
+Tthis village is lacking in ingredients.
+None of us die natural deaths.
+Our release will only come when our great father deems our sins repaid in full.
+The knowledge we curate is too dangerous to be widespread.
+Our great father's eye is always upon us.
+Our great father oversees our penance, and there is no escape from our fates.
+As time passes, we grow less concerned with our material conditions...
+Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
+  </si>
+  <si>
     <t xml:space="preserve">conery</t>
   </si>
   <si>
@@ -1681,6 +1813,227 @@
     <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
   </si>
   <si>
+    <t xml:space="preserve">miko_mifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
+命に死がなく、天に地獄がなく、出会いに別れがなく、喜びに悲しみがない世界など、存在しないのです。
+私は祝福の巫女として、毎年この村で封印の儀を導く役目を担っています。
+キズアミ様の祝福はすべての者に与えられます。その力は世界に干渉するものであり、信仰のない者にすら感じることができるでしょう。
+私たちが育てる稲は、豊かな霊力を宿し、封印の儀には欠かせないものです。
+ユフは歪んだ負の神であり、神々の間にある争いをすべて消し去り、理想の平和をイルヴァにもたらそうとしました。
+巫女を引き継ぐと決めた時、私はかつての名を捨て、「キヌ」と名乗りました。いつの日か、私の娘の一人も同じ道を歩むことでしょう。
+永遠の夏はなく、季節は巡り、やがて冬が訪れます。祝福も永遠には続かず、不幸もまた同様です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are both our blessings and curses. By changing our perspectives, we turn our weaknesses into strengths.
+There is no life without death, no heaven without hell, no meeting without parting, no joy without sorrow.
+As Maiden of Blessings, it's my duty to lead the village in the sealing rites every year.
+Lord Kizuami's blessings may be received by all. It is his way to meddle with the world, and even unbelievers may amuse him for a time.
+The rice we grow is blessed with an abundance of spiritual energy and is essential to the sealing rites.
+Yufu was a wicked negentropy god who sought to bring his delusion of peace to Ylva by eliminating all strife between the gods.
+When I rose to the position of shrine maiden, I set aside my old name and am now called "Kinu". Someday, one of my daughters will do the same.
+There is no eternal summer; the seasons turn and winter arrives. Blessings cannot last forever, but neither will misfortune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
+私たちは神樹の広場で儀式の舞を捧げる。
+ホロメ様はすべての命を愛し、信仰のない者にさえ小さな祝福を与えるのよ。
+刃の巫女として、私は毎年、封印の儀式の剣舞を舞うの。
+桜の花びらは女神の涙のように散り、私たちの心に儚さを刻む。
+儀式用の刀剣は、女神への崇拝において重要な役割を果たすのよ。
+ホロメ様は子供を慈しみ、大きな家族を持つ者に祝福を授ける。ネフは決して数の多い種族ではないけど、大家族は大いに尊敬されるの。
+私の刀は代々の巫女から受け継がれてきたものだ。
+刃の巫女はそれぞれ、その刀に新たな伝説を刻むことを目指す。
+私たちの女神は、力と美は相反するものではないと教える。ネフの剣舞はその両方を体現しようとするものだ。
+ネフの村は神樹を守るために築かれた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yufu was a wicked negentropy god who sought to manipulate the divine wars and rule over Ylva unopposed.
+We hold ceremonial dances in the clearing before the sacred tree.
+Lady Horome loves all mortals, and even unbelievers may receive a small blessing.
+As Maiden of Blades, every year I perform a sword dance as part of the sealing rites.
+The cherry blossoms fall like our goddess' tears and touch our hearts with melancholy.
+Ceremonial swords play a central role in the worship rites of our goddess.
+Lady Horome delights in children, and she blesses those who have large families. We Nefu have never been a numerous people, and those who gain her favor this way are greatly respected.
+My katana has been passed down through generations of shrine maidens.
+Each Maiden of Blades seeks to add to its legacy.
+Our goddess teaches that strength and beauty are not at odds; Nefu sword dances seek to exemplify both.
+Nefu Village was founded to guard the sacred tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
+私は主にここの守護を任されています。大変な栄誉ではあるのですが...ときどき退屈ですね。
+イーヴァン様の教えは苛烈とされますが、元は定命者への深い愛情と期待から来るものでもあります。
+機械は嫌いです。血が出ないから。
+模擬戦でもどうですか？最近闘争が足りていなくて。
+ビリーさん、あの棘さえなければ...
+猫は本当にかわいい生き物ですね...
+戦場の硝煙が恋しいです。連れて行ってくれませんか？
+ここの景色は美しいのですが、暮らす分には不便ですね。時折、北にあるミフの里まで遊びに行くのがたまの楽しみです。
+ここに眠る負の神に挑戦するのであれば止めはしませんよ。イーヴァン様も喜びそうですし。
+エーテルは非常に興味深い物質ですね。良くも悪くも、今後の人類の行く末を左右しそうです。
+初対面の狐族をモフモフするのって失礼でしょうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A traveler? What a rare occasion.
+I've been tasked to oversee this location by my god. It's a great honor, but well...can get boring at times.
+Lord Yevan's teachings may be considered drastic, but are rooted in his deep love and high expectations for mortals.
+I hate machinery. It doesn't bleed.
+Interested in sparring? I could use some practice.
+If only Billy didn't have those spikes...
+Cats...such cute animals.
+Ah, I miss the scent of the battlefield. Any chance you could take me to one?
+The scenery here is beautiful, but food is sparse. I like to occasionally stop by Mifu Village north of here for supplies.
+I won't stop you if you'd like to challenge the god sealed here. Lord Yevan would surely enjoy it.
+Ether is an interesting substance. It's sure to change the path of humanity, for better or worse.
+Do you think it's rude to fluffy stroke a random foxfolk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The charm about my neck? Of course it's filled with rice, we don't grow wheat in this village.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
+いらっしゃいませ！ お食事にしますか？ それともお風呂？ それとも…？
+なぜ急に村が人気になったのかはわかりませんが、忙しいのは悪くないですね！
+観光客たちは、ミサキの警告を無視して聖樹に近づきすぎるので困ります。まったく、敬意が足りませんね。
+私たちだけなら自給自足もできるのですが、ミフ村から食料を送ってもらわなければ、観光客たちをまかないきれません。
+どうして人間は、私たちの耳や尻尾にあんなに興味を持つのでしょう？
+ミサキは神殿を守り、私は宿を切り盛りしています。これじゃあ、長老がすることはあまり残っていませんね！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This inn was originally built to house pilgrims, but the village has had many tourists of late.
+Welcome! Would you like a meal, a bath, or perhaps...?
+I don't know how the village suddenly became popular, but I'm more than happy to be this busy!
+The tourists keep on getting too close to the sacred tree despite Misaki's warnings. They simply have no respect!
+We can sustain ourselves, but I wouldn't be able to deal with all these tourists if Mifu Village wasn't sending us food from the south.
+Why are humans so fascinated by our ears and tails?
+Misaki minds the temple, while I run the inn. Between us, there's not much left for the elder to do!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
+ 家みたいな場所を夢に見るけど、どうやってそこへ戻ればいいか思い出せない。
+目が覚めたらこの武器を持っていた。なんて重いの。刺す？撃つ？両方やっちゃえ。
+「はーい！ みんなのアイドル、機械人形キリアちゃんキリ～！」…私にアイドルモジュールなんてあった？ いつ録音したんだっけ？
+機械のマニは虚無を聞ける者に囁くって聞いた。あの人なら、私がなぜ作られたか知っているかも。
+*zzt* また壊れた記憶…何をしにここへ来たんだっけ？
+*beep* ただいま定期メンテナンス中です。もう少しお待ちください。
+私が小さなゴーレムだって？ 馬鹿な。
+バグ？ グリッチ？ それは機能だよ。
+*じっと見つめる* ちっ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know why I was made? No? Didn’t think so.
+I keep dreaming of a place that looks like home, but I can't remember how to get there.
+I woke up with this weapon. So cumbersome. Should I stab, or shoot?  I'll just do both.
+"Hai! It's everyone's idol, Machine Doll Kiria-chan, kiri～" ... Do I have an idol module? When did I record this?
+I heard Mani of Machine whispers to those who can hear the void. Maybe he knows why I was made.
+*zzt* Another corrupt memory... what was I doing here again?
+*beep* We are performing scheduled maintenance and will be back online shortly.
+Some people think I'm a tiny golem? Nonsense.
+Bugs? Glitches? Those are features.
+*stares* tch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_gaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
+新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
+怒らせると変な呪いをかけてくる神がいるから気を付けようね。
+カジノのディーラーは絶対｢やってる｣……！ 
+卵の卵♪ 切り身の切り身♪ 切り身の卵♪
+上には上がいる。ざこよりざこもいる。#brother2はどっちかなぁ～？
+もう1本ツノ……いや刀を持ってたんだけど旅の途中で失くしちゃってねぇ。
+美味しいもの食べてる時がしゃーわせ♪
+牙姫ちゃん来たよ。もてなしてねすぐでいいよ。
+可愛くて強いのが牙姫ちゃんってワケ☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A phantom azure tulip? I’ve traveled far and wide, but I’ve never seen one.
+There’s some new weird disease going around... I wonder if it’ll make me grow horns~
+There’s a god who curses people with weird spells when they get mad, so be careful.
+I’m telling you, the casino dealers are definitely cheating...! 
+Egg of an egg♪ Slice of a slice♪ Slice of an egg♪
+There’s always someone better. And someone worse than the worst. Which one are you, #brother2?
+I used to have another horn... no, another sword, but I lost it along the way.
+Eating something delicious is pure bliss♪
+Fang Princess is here. Treat her well, and quickly.
+Cute and strong, that’s what makes me Fang Princess☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_mesherada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
+もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
+そなたには、時の彼方に失われたと思っていた安らぎを感じる。
+そなたの魂は懐かしい…まるで言葉が生まれるよりも前に、出会っていたかのようだ。
+この瞬間が永遠に続けばよいのに…そなたの温もりをもう少し感じていたい。
+そなたはただの優しい見知らぬ人なのか…それとも時を越えて追いかけてきた面影か…
+目の前に立つそなたの名前を、私はまだ呼ぶことができない。
+不思議だ…そなたの傍にいると、なぜか一番安らぐ。
+そなたも感じているか…？ 二人を繋ぐ糸が張り詰めているのを？
+いくつもの道を歩んでも…その先には必ずそなたがいるのだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder... are our souls once more intertwined, waiting for the moment when we shall fulfill our promise?
+If thou art the one I seek... surely fate shall whisper it to us both.
+There is something in thy presence—a peace I thought lost to time.
+Thy soul feels familiar, as though we met long before names were spoken.
+Would that this moment could linger, if only to feel thy warmth a while more.
+Art thou merely a kind stranger... or the echo I have chased through time?
+Thou standest before me, and yet I dare not name thee.
+Strange... I feel safest when thou art near.
+Dost thou feel it too? A thread pulled taut between us.
+So many paths... yet I always find thee at the end of mine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olderyoungersister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
+ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
+#brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
+#brother2の為に戦いも家事もあらゆることはできるようになっておきたいの。
+神様は時に残酷だよね#brother2…
+私は#brother2のこと束縛しないよっ！本当だよっ！
+私の囀りには混沌の力が宿るみたい。
+私以外にもこの世界には#brother2の血の繋がらない妹達がいるんだって！
+雪プチちゃんをもふもふしたい！もふりたいよ#brother2！
+雪プチちゃんには色の違う子たちがいるんだよ#brother2。みんなお迎えできると嬉しいね#brother2。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder when I was born, #brother2? It was a long, long time ago, #brother2...
+I’ve been wandering this world all this time, searching for you, #brother2... and then I found you!
+We’ll be together forever, right, #brother2...? I just got a little scared, that’s all, #brother2.
+I want to be able to do everything for you, #brother2 – fighting, housework, everything.
+God can be so cruel sometimes, #brother2...
+I won’t ever tie you down, #brother2! I promise!
+It seems like there’s a power of chaos in my song.
+I heard there are other sisters in this world who aren’t blood-related to you, #brother2!
+I want to snuggle with snow putit-chan! I really do, #brother2!
+There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -2124,6 +2477,66 @@
 怎样才能进入金字塔呢{。}？</t>
   </si>
   <si>
+    <t xml:space="preserve">我们种了很多米，会卖给人类一些{。}。
+吉须阿弥大人是这个村子的守护神{。}。
+这个村子的河是从莱娜村附近的山上流出来的{。}。
+我们的祖先就是在这座山的山丘上开辟了梯田种起了稻子{。}。
+村里的人都懂书法{。}。
+如果{你}对书法感兴趣的话，可以在杂货店买到书法工具{。}。
+如果在田地旁边看到了金色的鬼火，请马上通知姬奴。那是会迷惑人的邪恶之灵{。}。
+这个村子里种着许多萝卜啊葱啊等等蔬菜{。}。
+姬奴真的很擅长培育大米{。}。
+只有信仰吉须阿弥大人的人，才能感受到这个村子的灵力{。}。
+前往莱娜村的旅人，都会在挑战山路前在这个村子的旅馆休息一下{。}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我害怕走出村子。因为人类会若无其事地摸我的耳朵和尾巴{。}。
+穗罗女大人守护着这个村子的大家{。}。
+我讨厌那些会破坏村子气氛的游客{。}。
+相传晚上一个人在樱花树旁边，就能看到金色的九尾狐{。}。
+这个村子的人从小就学习剑术{。}。
+这个村子里卖的奶是最棒的{。}！
+米芙会从南方进回稻子来在这里酿酒{。}。
+樱花酒是献给女神的最好供品{。}。
+美佐岐的身体真的很丰韵。又大又有包容力，最棒了{。}！
+多亏了美佐岐和美珠奈，这个村庄才能安全又繁荣{。}。
+这个村子在北地来说算是比较温暖的地方。神木在冬天也不会落叶{。}。
+樱花酒是这个村子的名产{。}。
+在瀑布下冥想可以让身体与心灵中的邪恶得到净化{。}。
+只有信仰穗罗女大人的人，才能看到这个村子真正的美丽{。}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因为这里离城镇很远，所以几乎所有的物资都是从空中送来的{。}。
+斯普睿聚集着很多冒险者，他们会在挑战奈菲亚前互相组队{。}。
+斯普睿对于许多前往北提里斯荒野的冒险者来说，是最后的补给地点{。}。
+这附近有许多危险的奈菲亚{。}。
+据说这附近有着没有大使馆特别许可就无法探索的奈菲亚{。}。
+这个村子原本是妖精们居住的地方{。}。
+从冒险者们开始路经这里后，这个村子也变大了{。}。
+树上会不停地举行宴会，这就是我们从冒险者那里赚钱的方法{。}。
+斯普睿的创立者好像是穿着蓝色茄子服装的妖精{。}。
+多亏了妖精的魔法，这棵树不会因被人们居住而受到影响，仍能健康地成长着{。}。
+我们照顾树木，树木也保护我们{。}。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#race为什么来这个村子…？
+#race来这里做什么{。}？
+结界保护着这个村子，让这里不会受到怪物侵犯也不会被好奇的人盯上{。}。
+有时，我们需要从外面的世界获取研究材料{。}。
+对我来说很重要的人都早已去世，现在在外面的世界已经没有人记得我了{。}。
+我们打破了众神的禁忌，被施加了侍奉伟大之父的任务{。}。
+长老比切林似乎不太想提起自己已经活了多少岁月{。}。
+如果你能给我们带些尝起来不像灰的食物，大家都会很高兴的{。}。
+这个村子里几乎没什么食材{。}。
+我们不会迎来自然的死亡{。}。
+伟大之父认为我们的罪过都被偿付之时，就是我们被释放的日子{。}。
+我们所拥有的知识，如果传到外面的世界就太危险了{。}。
+伟大之父总是守护着我们。
+伟大之父监督着我们进行赎罪，这是无法逃脱的命运{。}。
+随着时间的流逝，我们已经没有什么物质层面上的追求了{。}。
+#race啊，在你面前的是活了一千年以上的流放者{。}。</t>
+  </si>
+  <si>
     <t xml:space="preserve">少主作为帕罗米亚的继承人，希望他能更有操守一些。
 就因为有基尔巴德这样的人在，少主才会跟着瞎闹。
 斯塔莎公主在这个年纪举止就彬彬有礼，而且行事果断。简直就是宫廷的偶像！
@@ -2251,6 +2664,103 @@
   </si>
   <si>
     <t xml:space="preserve">哎呀，你是来玩彩球抽奖的吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们既是祝福，也是诅咒。换个角度看，弱小也是一种强大。
+没有死亡的生命，没有地狱的天堂，没有离别的相遇，没有悲伤的喜悦…这样的世界是不存在的。
+我作为福缘之圣女，肩负着每年引导村庄举行封印仪式的职责。
+吉须阿弥大人的祝福普济众生。那份力量是足以干涉世界，没有信仰的人也能够感受到。
+我们培育的稻子寄宿着丰富的灵力，是封印仪式上不可或缺之物。
+喻部是一个扭曲的负之神，他想要消除众神之间所有的争斗，试图把理想和平带给伊尔瓦。
+决定继承圣女身份的时候，我舍弃了以前的名字，自称「姬奴」。总有一天，我的某个女儿也会踏上同样的道路。
+夏无永驻，四季轮回，寒冬将至。祝福也不会永远持续，不幸亦然。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喻部是一个邪恶的负之神，他操纵着众神的战争，企图统治伊尔瓦。
+我们会在神树广场上献上仪式之舞。
+穗罗女大人爱着所有的生命，甚至会给予那些没有信仰的人小小的祝福。
+作为金剑之圣女，我每年都要为封印仪式献上剑舞。
+樱花的花瓣像女神的眼泪一样飘落，在我们的心中刻下转瞬即逝的美。
+仪式用的刀剑在祭拜女神时起着重要的作用。
+穗罗女大人对孩子们都很慈爱，她会为大家族祝福。涅芙一族算不上什么成员众多的种族，其中的大家族都很受尊敬。
+我的刀是历代圣女代代相传的。
+金剑之圣女们都立志用此刀创造新的传说。
+女神教导我们力量和美并非是对立的。涅芙的剑舞便是这两者的结合。
+涅芙的村庄是为了保护神树而建造的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你是冒险者吗？竟然来到这样的地方，真是好奇心太旺盛了。
+我主要负责守护这里。虽然很光荣...但有时候好无聊啊。
+耶万大人的教导会被认为是残酷的，但那也是源自于对凡人的厚爱与期待。
+我讨厌机器。因为它们不会流血。
+来试试身手怎么样？最近的争斗完全不够。
+比利先生如果没有那些刺的话...
+猫真是可爱的生物...
+我留恋于战场上的硝烟。可以带我去吗？
+这里的景色很美，但是生活很不方便。只有去北方的米芙村玩才算得上是偶尔的乐趣。
+如果你想挑战沉睡在这里的负之神，我是不会阻止的。我想耶万大人也会很高兴才是。
+以太是一种非常有趣的物质。无论好坏，都会左右今后人类的前途。
+不觉得摸初次见面的狐族很失礼吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这条项链？里面装的当然是米啦。因为我们村里没有种小麦。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这家旅馆原本是为了迎接朝圣者而建造的，但是最近接待的游客也变多了。
+欢迎光临！要吃饭吗？还是洗澡？还是…？
+不知道为什么村子会突然变得很热闹，不过，忙起来的感觉也不坏！
+游客们总是不顾美佐岐的警告，太过靠近圣树，真让人头疼。真是的，一点敬畏之心都没有。
+我们虽然可以自给自足，但是如果不从米芙村运来食物的话，根本招待不了这么多游客。
+为什么人类对我们的耳朵和尾巴那么感兴趣呢？
+美佐岐负责守护神殿，我负责管理旅馆。这样看来好像没什么长老能做的事了呢！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你想知道我为何被制造出来吗？不想？猜你也不想。
+我梦到一个像家一样的地方，但我想不起来该如何回到那里。
+我醒来时就拿着这个武器。它可真重啊。这是拿来刺的？还是用来射击？应该都行吧。
+「你好！我是大家的偶像，机械人偶机利亚～！」…我还装有偶像模块吗？这是什么时候录的？
+据说机械之玛尼会向聆听虚无之人低语。如果是那个人的话，可能会知道我为什么被制造出来。
+*zzt* 记忆又故障了…我来这里要干什么来着？
+*beep* 现在正在进行定期维护。请再稍等一下。
+你说我是小号的魔像？怎么可能呢。
+错误？故障？才没有，那只是我的功能罢了。
+*盯着看*啧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天蓝色的郁金香？我虽然去过很多地方，但是从没见过那种东西哦。
+最近好像有什么奇怪的新病在流行着……不知会不会长出角来呢～。
+如果惹恼了某些神明就可能会被降下古怪的诅咒，要小心哦。
+赌场的庄家绝对在｢出老千｣……！ 
+蛋的蛋♪刺身的刺身♪刺身的蛋♪
+人外有人，杂鱼外有杂鱼。#brother2是哪边呢？
+我本来还有另一根角……不对是刀，但在旅途中丢失了。
+享用美食的时刻最幸福♪
+牙姬酱驾到。快来招待一下啦。
+牙姬酱就是可爱又强大☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你我的灵魂能够再次交织，不正意味着到了我们实现约定的时候吗…？ 
+若你就是我所寻求之人…那命运一定会轻轻向我们诉说吧。
+我能在你身上感受到一种好像已经在漫长时空中丢失的安宁感。
+你的灵魂让我感到如此熟悉…就仿佛在言语诞生之前，你我就已曾邂逅。
+若此刻能够永远持续下去就好了…我还想再多感受一下你的温暖。
+你只是一位温柔的陌生人吗…又或者真的是我跨越时空追寻的那道身影呢…
+我还是没法叫出现在就在我面前的…你的名字…
+真是不可思议…只要待在你身边，就会感觉十分安心。
+你也感觉到了吗…？那条连接着你我之间的命运之线？
+无论走过多少路…旅途的前方都一定会有你在。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你在意我是什么时候出生的吗#brother2？那是很久很久以前的故事了#brother2…
+我一直为了寻找#brother2而在这个世界上徘徊…然后就找到了#brother2！
+#brother2会和我永远……在一起吧…？我只是有点不安而已啦#brother2。
+为了#brother2，无论战斗还是家务，都要做好才行。
+神有时很残酷呢#brother2…
+我没有束缚#brother2哦！真的哦！
+我的歌声中似乎寄宿着混沌的力量。
+除了我以外这个世界上还有着许多和#brother2没有血缘关系的妹妹！
+好想摸雪波球！也想摸#brother2！
+雪波球有不同颜色的哦#brother2。如果能都带回家就好了#brother2。</t>
   </si>
 </sst>
 </file>
@@ -2362,7 +2872,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -2395,6 +2905,10 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
@@ -2408,6 +2922,10 @@
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -2494,9 +3012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>288000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2506,7 +3024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49669920" cy="129240"/>
+          <a:ext cx="49667400" cy="126720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2698,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2712,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -2726,7 +3244,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2740,7 +3258,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2754,7 +3272,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -2768,7 +3286,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -2782,7 +3300,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -2796,7 +3314,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -2810,7 +3328,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2824,7 +3342,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -2838,7 +3356,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2852,7 +3370,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -2866,7 +3384,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -2880,7 +3398,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -2894,7 +3412,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -2908,7 +3426,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -2922,7 +3440,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -2936,7 +3454,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -2950,7 +3468,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -2964,7 +3482,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -2978,7 +3496,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -2992,7 +3510,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -3006,7 +3524,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -3020,7 +3538,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -3034,7 +3552,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3048,7 +3566,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
@@ -3062,7 +3580,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
@@ -3076,7 +3594,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3090,7 +3608,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
@@ -3104,7 +3622,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
@@ -3118,7 +3636,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -3132,7 +3650,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3146,7 +3664,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
@@ -3160,7 +3678,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -3174,7 +3692,7 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>106</v>
@@ -3188,7 +3706,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
@@ -3202,7 +3720,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -3216,7 +3734,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -3230,7 +3748,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -3244,7 +3762,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
@@ -3258,7 +3776,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -3272,7 +3790,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -3286,7 +3804,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -3300,7 +3818,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
@@ -3314,7 +3832,7 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -3328,7 +3846,7 @@
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -3342,7 +3860,7 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -3356,7 +3874,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -3370,7 +3888,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -3384,7 +3902,7 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
@@ -3398,7 +3916,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -3412,7 +3930,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -3426,7 +3944,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
@@ -3440,7 +3958,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -3454,7 +3972,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -3468,7 +3986,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -3482,7 +4000,7 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
@@ -3496,7 +4014,7 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
@@ -3510,7 +4028,7 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
@@ -3524,7 +4042,7 @@
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
@@ -3538,7 +4056,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
@@ -3552,7 +4070,7 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>187</v>
@@ -3566,7 +4084,7 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>190</v>
@@ -3580,7 +4098,7 @@
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>193</v>
@@ -3594,7 +4112,7 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
@@ -3608,7 +4126,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>199</v>
@@ -3622,7 +4140,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>202</v>
@@ -3636,7 +4154,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>205</v>
@@ -3650,7 +4168,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>208</v>
@@ -3664,7 +4182,7 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>211</v>
@@ -3678,7 +4196,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
@@ -3692,7 +4210,7 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>217</v>
@@ -3720,11 +4238,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3764,7 +4282,7 @@
         <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>220</v>
@@ -3778,7 +4296,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>223</v>
@@ -3792,7 +4310,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>226</v>
@@ -3806,7 +4324,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>229</v>
@@ -3820,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>232</v>
@@ -3834,7 +4352,7 @@
         <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>235</v>
@@ -3848,7 +4366,7 @@
         <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>238</v>
@@ -3862,7 +4380,7 @@
         <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>241</v>
@@ -3876,7 +4394,7 @@
         <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>244</v>
@@ -3890,7 +4408,7 @@
         <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>247</v>
@@ -3904,7 +4422,7 @@
         <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>250</v>
@@ -3918,7 +4436,7 @@
         <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>253</v>
@@ -3932,7 +4450,7 @@
         <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>256</v>
@@ -3946,7 +4464,7 @@
         <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>259</v>
@@ -3960,7 +4478,7 @@
         <v>261</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>262</v>
@@ -3975,7 +4493,7 @@
         <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>265</v>
@@ -3989,7 +4507,7 @@
         <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>268</v>
@@ -4003,7 +4521,7 @@
         <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>271</v>
@@ -4017,7 +4535,7 @@
         <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>274</v>
@@ -4042,14 +4560,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4079,7 +4597,7 @@
         <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>277</v>
@@ -4093,7 +4611,7 @@
         <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>280</v>
@@ -4107,7 +4625,7 @@
         <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>283</v>
@@ -4121,7 +4639,7 @@
         <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>286</v>
@@ -4135,7 +4653,7 @@
         <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>289</v>
@@ -4149,7 +4667,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>292</v>
@@ -4163,7 +4681,7 @@
         <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>295</v>
@@ -4177,7 +4695,7 @@
         <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>298</v>
@@ -4191,13 +4709,69 @@
         <v>300</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="14" ht="116.4">
+      <c r="A14" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" ht="147.75">
+      <c r="A15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" ht="116.4">
+      <c r="A16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" ht="168.65">
+      <c r="A17" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4216,14 +4790,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B37" sqref="B37"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4231,7 +4805,7 @@
     <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
     <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8">
@@ -4259,353 +4833,465 @@
     </row>
     <row r="5" ht="43.25">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" ht="64.15">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" ht="22.35">
       <c r="A8" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="53.7">
       <c r="A9" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" ht="43.25">
       <c r="A10" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" ht="53.7">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" ht="64.15">
       <c r="A12" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" ht="43.25">
       <c r="A14" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" ht="32.8">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" ht="43.25">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" ht="32.8">
       <c r="A17" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" ht="44.75">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" ht="32.8">
       <c r="A19" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" ht="56.7">
       <c r="A20" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" ht="91">
       <c r="A21" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>353</v>
+        <v>364</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="22" ht="67.15">
       <c r="A22" s="1" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B22" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" ht="13.8">
       <c r="A23" s="1" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
-        <v>493</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>358</v>
+        <v>536</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" ht="74.6">
       <c r="A24" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" ht="12.8">
-      <c r="A25" s="9" t="s">
-        <v>363</v>
+      <c r="A25" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" ht="13.8">
-      <c r="A26" s="9" t="s">
-        <v>365</v>
+      <c r="A26" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="B26" t="s">
-        <v>496</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>366</v>
+        <v>539</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" ht="95.5">
-      <c r="A27" s="9" t="s">
-        <v>368</v>
+      <c r="A27" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>369</v>
+        <v>540</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="1" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" ht="12.8">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" ht="12.8">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="32" ht="12.8">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" ht="12.8">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" ht="147.75">
+      <c r="A29" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" ht="147.75">
+      <c r="A30" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" ht="147.75">
+      <c r="A31" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" ht="22.35">
+      <c r="A32" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" ht="95.5">
+      <c r="A33" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" ht="116.4">
+      <c r="A34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B34" t="s">
+        <v>547</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" ht="105.95">
+      <c r="A35" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B35" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" ht="105.95">
+      <c r="A36" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B36" t="s">
+        <v>549</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" ht="116.4">
+      <c r="A37" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B37" t="s">
+        <v>550</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>412</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Original/CN/Dialog/dialog.xlsx
+++ b/Original/CN/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="578">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -475,7 +475,16 @@
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">I don't have business with criminals.</t>
+    <t xml:space="preserve">I don't do business with criminals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_blackmarket_noaccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{あはは}、君みたいなカタギの冒険者が私に何の用{だ}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh, what business does a straight-laced adventurer like you have with me?</t>
   </si>
   <si>
     <t xml:space="preserve">guide</t>
@@ -854,11 +863,13 @@
   </si>
   <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
-不審者を見たら報告して{くれ}。</t>
+不審者を見たら報告して{くれ}。
+私も昔は君のような冒険者だったの{だが}…</t>
   </si>
   <si>
     <t xml:space="preserve">It is our duty to protect citizens.
-Report to me if you see anyone suspicious.</t>
+Report to me if you see anyone suspicious.
+I used to be an adventurer like you, then...</t>
   </si>
   <si>
     <t xml:space="preserve">banker</t>
@@ -1371,6 +1382,60 @@
 Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
   </si>
   <si>
+    <t xml:space="preserve">larnneire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あら、獣に変えられた王子の童話を、あなたは知っているの？
+私達はヴィンデールの森からの使者。
+公正なるジャビ王と会見し、森とエレアの民に降りかかる嫌疑を晴らすために、王都パルミアに向かっているの。
+アセリア大陸から大洋を隔たち、ティリス大陸の北に位置するのがノースティリスよ。
+あなたに風の加護のあらんことを。
+ここはどこかしら…？
+ミシリア？ ええ、知っているわ。でもミシリアは…
+人間は…怖いと思う。でも、同時に興味を惹かれるの。
+人間の抱く欲求の多くを、エレアは持たない。私たちは所有することにも、支配や戦うことにも興味がないの。それが良いことかは別としてね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, you know the fairy tale of the prince who was turned into an ugly beast?
+We are messengers from Vindale.
+Our journey ends here in North Tyris at the great city of Palmia where we're supposed to have a talk with King Xabi, a man of fairness and compassion.
+North Tyris is a continent in the western hemisphere of Ylva.
+May Wind always be with you.
+...Where have we come?
+Mysilia? Yes, I know it. But Mysilia is...
+Humans... they frighten me, yet they hold such allure.
+Most of the cravings that dwell in human hearts are absent in us Elea. We have no interest in owning, in ruling, or in fighting. But whether that is for the better is another matter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lomias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見たところ君はノースティリスの人間ではないようだ。
+君はこの世界で何を見て、如何な足跡を残すのかな？
+おかしな場所に迷い込んでしまったぞ。
+パルミアに向かう旅の途中なんだ。
+何を言っている？ 今はシエラ暦517年だろう？
+ヴェルニースを開拓？ 君は頭でも打ったのか？
+奇遇だな。君とよく似た冒険者を介護してきたところだ。
+まったく、我々の急を要する旅が、行き倒れの冒険者のせいで遅れてしまったよ。
+…そんな物珍しげな顔をするな。君の察する通り、我々は森の民だ。君たちが「異形」と呼ぶ森の。
+森の「外」に出たエレアを、森は二度と受け入れない。もちろん、私とラーネイレは別だ。人間と関わるのは「使者」の役目だからな。
+ラーネイレはエレアの中でも特別な血筋を受け継いでいる。おっと、彼女に口酸っぱく言われる前にこの話は止めておこう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks like you aren't familiar with this land.
+What will you see in this world, and what footprints will you leave behind?
+Hah, we’ve wandered into a strange place.
+We are on our way to Palmia.
+What are you talking about? It’s the year 517 of Sierra Terre. of course.
+Pioneering Vernis? Did you hit your head?
+What a coincidence. we just finished tending to an adventurer who looked a lot like you.
+Honestly, our urgent journey has been delayed all because of a collapsed adventurer.
+...Stop your curious eyes. Yes, we are kin of the Forest. The forest which you deride as "Other".
+Once an Elea leaves the Forest, the Forest shall never receive them again. Naturally, Larnneire and I stand apart, for it is the envoy’s role to treat with humans.
+Larnneire inherits a bloodline unlike any other among the Elea. But I had better say no more, lest she remind me sharply again!</t>
+  </si>
+  <si>
     <t xml:space="preserve">conery</t>
   </si>
   <si>
@@ -1628,7 +1693,7 @@
   </si>
   <si>
     <t xml:space="preserve">Please stay away...Lord Efrond will be angry with me.
-The Forest of Vindale...I have never visited it. All the elea who live in Mysiria are "outsiders".
+The Forest of Vindale...I have never visited it. All the elea who live in Mysilia are "outsiders".
 Looking at the flowers like this makes me sleepy...</t>
   </si>
   <si>
@@ -1755,15 +1820,53 @@
 私は『探求者』…あるいは『異界渡り』とも呼ばれる男だ。この世のすべての知識を得るために人生を捧げている。見てのとおりの世捨て人さ。
 …しかし、よくぞまあ、こんな辺ぴな場所を見つけたものだな。
 …この城は私の大図書館だが、元来に図書館とは広く開かれた場所であるべきだ…私は君を歓迎しよう。
-この世のすべての知識は、誰もが手にする権利を持っているのだ。君も自由に過ごしたまえ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah, a raven. Do you seek something?
+この世のすべての知識は、誰もが手にする権利を持っているのだ。君も自由に過ごしたまえ。
+この世界のどこかに、イルヴァ全ての歴史と真相が刻まれた秘宝があるらしい…。
+永遠の盟約…？　随分と古い話を知っているのだね。
+やあ、ワタリガラス。貸し出した本は大事に読んでいるかい？
+知識を後世に残すことは、知識を得た者の義務だよ。
+やあ、ワタリガラス。我が友スランを見かけなかったかい？
+…この兜かい？　美しい獣だろう。古い友なんだ。
+…顔を隠す理由？　10年戦争以降、エレアは肩身が狭くてね…。
+…友は皆、一足先に旅立ってしまう…。
+どうも、妹犬の館とやらの幻覚を追う狂人がいるらしい。
+また戦争が起こるのかな。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Ah, a raven. Do you seek something?
 Would you like some tea, raven?
  I am "Seeker"... or you might call me "Realm Wanderer". I've dedicated my life to acquiring all the knowledge in this world. As you can see, I am a recluse.
 It's quite remarkable that you found such a remote place.
 ...This castle is my great library, but fundamentally, a library should be a place open to all.
-All the knowledge of this world should be accessible to everyone. Feel free to make yourself at home.</t>
+All the knowledge of this world should be accessible to everyone. Feel free to make yourself at home.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">The Eternal League...? You know quite an old tale, I see.
+Ah, raven. Are you taking good care of the books you borrowed?
+Passing knowledge to future generations is the duty of those who possess it.
+Hello again, raven. You haven't seen my friend Slan, have you?
+This helmet? A beautiful beast, isn’t it? It’s an old friend of mine.
+Why do I hide my face? Since the Ten-Year War, it’s been hard for an Elea to walk freely...
+All my friends... they've all left on ahead of me.
+Apparently, there’s a madman chasing after visions of some “Mason of the Younger Dog Sister.”
+I wonder... will there be another war?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">quru</t>
@@ -2034,6 +2137,112 @@
 There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
   </si>
   <si>
+    <t xml:space="preserve">fairy_nanasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～。
+好きな物はなにかって？もちろんナスだよ～。
+スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～。
+冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～。
+冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～。
+もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～。
+出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～。
+かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～。
+実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Nanasu, the eggplant fairy!
+What's my favorite food? Eggplant, of course!
+Specwing is a very nice place, everyone is dancing happily.
+The most gratifying part of an adventure is the bond that you get from adventuring together!
+I had a lot of drinks with new friends I met during my adventures, it was a lot of fun.
+Of course, there were some sad times, but I still moved forward believing that I would meet new people, and that's why I am here today.
+Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
+The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
+when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_raina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アタシはライナ！迂闊に触れると痺れさせちゃうよっ！
+あら、冒険者さん。アタシに何か用？
+ポイナとの関係？まぁ～ただのいたずら仲間ってカンジ？でもなんだかんだで一緒に冒険してる長い付き合いよ。
+ナナスのことは別に嫌いじゃないのよ？ただ…ちょっといたずらして焼きナスにしたいだけ！キャハハ！
+初めてポイナとナナスとアタシの3人で冒険した時、ナナスがドジかまして死にかけたよ…アタシの機転で何とかなったけど、全く…
+鞄の時はナナスとは別行動だったけど、ナナスと一緒に冒険することもあるよ。ま、殆どデコイ役だけどね！キャハハ！
+最近だとアタシ含めてスペクウィングの妖精達が冒険に出る事が多くなったよ。ま、ライバルが増えるのは悪くはないけどねっ！
+…アタシが熱を出した時、ナナスが看病してくれた事があったよ。その時はありがとうって言えなかったけど、感謝はしてる。
+スペクウィングの創設者と言われている青いナスの妖精…？ああ、アイツね…昔アタシも稽古してもらってた、でも一回も勝てなかった！
+青いナスの妖精にはいつかリベンジしようと思ってた、でもいつの間にかどっかに行っちゃった！…勝ち逃げされた気分でくやしい！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Raina! Touch me carelessly and I'll make you tingle!
+Oh, adventurer. You need something from me?
+My relationship with Poina? Well~ just like mischief partners, I guess? But we've been adventuring together for ages, one way or another.
+I don't dislike Nanasu, you know? I just... want to play a little prank and turn her into grilled eggplant!
+The first time Poina, Nanasu, and I went on an adventure together, Nanasu messed up and nearly died... I managed to save the day with my quick thinking, but seriously...
+During the bag scramble, I was on a separate mission from Nanasu, but I do go on adventures with her sometimes. Well, mostly she's just the decoy though!
+Lately, the fairies of Specwing have been going on more adventures. Well, having more rivals isn't so bad either!
+When I had a fever, Nanasu took care of me. I couldn't thank her at the time, but I'm grateful.
+The Blue Eggplant Fairy, said to be Specwing's founder...? Ah, her... I used to train under her too, but I never won a single match!
+I'd been planning to get revenge on Blue Eggplant Fairy someday, but before I knew it, she'd vanished! ...Feels like she got away with it, and it's so frustrating!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_poina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私はポイナ、余計な事言うと毒を喰らわせるからな。
+…なんだ？何か用か？
+ライナは戦いを甘く見てる時がある。冒険は遊びじゃないと何度言えば分かるんだか、バカがよ…
+ナナスは甘すぎる。アイツは絆を大事にしていると言っているが、それだけだといつか足元をすくわれるだろうな…
+ライナとは長い付き合いだが、いたずら仲間程度の認識だ。だが一緒に冒険をするのは嫌いじゃない。
+私は奇襲を仕掛ける方が好きだが、ライナがすぐに突っ込んでいくから余計な消耗をすることになる…バカがよ…
+ライナからナナスと一緒に初めて冒険をした話は聞いたか？その時ナナスは自分が皆を危険な目に合わせたことに泣いてたさ、ハハッ。
+…ナナスは昔、私が落とし物をした際に必死になって探してくれたことがある。普段こっちがいたずらしてばっかなのに…バカがよ…
+昔、ナナスやライナと共に青いナスの妖精に稽古をつけてもらったことがある。だがアイツには私の毒攻撃が殆ど効いていなかった。
+今の私とライナ、そしてナナスの3人であれば青いナスの妖精に勝てるだろうか？だがアイツはもう何処かに行って久しいからな…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Poina. Say one wrong thing and I'll attack you with poison.
+What? You need something?
+Raina sometimes underestimates the fight. How many times do I have to tell you that adventure isn't a game, idiot...
+Nanasu is way too sweet. She says she values bonds, but if that's all she has, she'll get tripped up someday...
+I've known Raina for a long time, but I only think of her as a fellow prankster. Still, I don't mind adventuring with her.
+I prefer launching surprise attacks, but Raina always charges in headfirst, leading to unnecessary wear and tear... What an idiot...
+Did you hear about Raina's first adventure with Nanasu? Back then, Nanasu was crying because she thought she'd put everyone in danger.
+Nanasu once searched desperately for something I lost. Even though I'm always the one pulling pranks... idiot...
+Long ago, I trained with Nanasu and Raina under the blue eggplant fairy. But my poison attacks barely affected her.
+Can Raina, Nanasu, and I defeat the blue eggplant fairy? But she's been traveling somewhere for a long time now...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪プチちゃん、かわいいですよね……フフフ……。
+ねこの自由さには憧れます。ねこの神様がいたらきっと自由そのものなんだろうなあ。
+ふつうでありたいのに、トラブルはどうしてすぐこちらを見つけるのでしょうね……*はぁ*
+不思議な話し方の冒険者さん、何故会話が出来たのか私も分かりません……。
+可愛らしいお人形の冒険者さん、ずっと誰かを探してますよね……。
+黒い翼の冒険者さん、かっこいいですよね……。
+魔法使いの冒険者さん、何やら物騒な本を持っているような……。
+運命の導きを信じる冒険者さん、何だか情熱的ですよね。
+猫を……吸う？……冒険者が居るとか……？
+ミシリアにある魔女のパン屋さん、素敵ですよね！魔女で、パン屋さん！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Putit is just too cute... hehe.
+I wish I were as free as a cat... If there’s a cat god, they must be freedom itself.
+All I want is a normal life... So why does trouble always find me? *sigh*
+That adventurer talks so oddly... and yet, somehow we still had a conversation.
+That cute, doll-like adventurer... always searching for someone.
+That adventurer with black wings... they look really cool.
+That adventurer mage... carrying a book that feels kinda dangerous.
+That adventurer who believes in fate... so passionate, huh.
+An adventurer who... ‘inhales cats’? ...Wait, what?
+That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -2183,6 +2392,9 @@
   </si>
   <si>
     <t xml:space="preserve">{我}可不和罪犯做买卖。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{啊哈哈}，你这样的正经冒险者干嘛找我{。}？</t>
   </si>
   <si>
     <t xml:space="preserve">{你}想找谁？</t>
@@ -2324,7 +2536,8 @@
   </si>
   <si>
     <t xml:space="preserve">保护市民的安全是守卫的工作{。}。
-看到可疑的人就向{我}报告{。}。</t>
+看到可疑的人就向{我}报告{。}。
+{我}以前和{你}一样是个冒险者，直到…</t>
   </si>
   <si>
     <t xml:space="preserve">客人的钱比什么都重要{。}。
@@ -2402,7 +2615,7 @@
 在特尔斐附近建立牧场的话，马上就能成为有钱人了！
 如果善恶值高的话，可以让税金打折。
 怪物的粪便越重越能卖高价。
-喝被诅咒的回复药水有时会生病。
+喝被诅咒的恢复药水有时会生病。
 赫尔墨斯之血*一定要*祝福之后再喝！
 如果弄错了归还地点的话可能会很麻烦。</t>
   </si>
@@ -2514,7 +2727,7 @@
 这个村子原本是妖精们居住的地方{。}。
 从冒险者们开始路经这里后，这个村子也变大了{。}。
 树上会不停地举行宴会，这就是我们从冒险者那里赚钱的方法{。}。
-斯普睿的创立者好像是穿着蓝色茄子服装的妖精{。}。
+斯普睿的创立者好像是穿着青色茄子服装的妖精{。}。
 多亏了妖精的魔法，这棵树不会因被人们居住而受到影响，仍能健康地成长着{。}。
 我们照顾树木，树木也保护我们{。}。 </t>
   </si>
@@ -2537,6 +2750,30 @@
 #race啊，在你面前的是活了一千年以上的流放者{。}。</t>
   </si>
   <si>
+    <t xml:space="preserve">哎呀，你听过那个变成野兽的王子的童话吗？
+我们是来自温戴尔之森的使者。
+为了谒见公正的贾比王，洗清森林和艾莱亚人民蒙受的不白之冤，我们正朝着王都帕罗米亚行进。
+艾索利亚大陆与提里斯大陆相隔一片汪洋，在提里斯北部的就是北提里斯。
+愿风加护于你。
+这里是哪里呢…？
+米西利亚？ 嗯，我知道。但米西利亚已经…
+我觉得人类…有点可怕。但也对他们很有兴趣。
+艾莱亚没有人类的大多数欲望。我们对占有、统治和争斗没有兴趣。至于这是不是好事，就另当别论了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看样子你好像不是北提里斯人呢。
+你在这个世界上会见识怎样的事情，又会留下怎样的足迹呢？
+看来我们迷路跑到了奇怪的地方啊。
+我们正在向帕罗米亚旅行的途中。
+你在说什么？ 现在是西埃尔历517年吧？
+开拓韦尔尼斯？ 你撞坏脑袋了吗？
+真巧呢。我照顾过和你很像的冒险者。
+真是麻烦，我们急迫的行程被昏倒的冒险者耽误了。
+…别摆出这么一副看到稀奇存在的表情呀。如你所见，我们是被你们称为「异形」森林的居民。
+踏出森林的艾莱亚不再会被森林接纳。当然，我和拉纳莱是特例。毕竟与人类打交道是「使者」的职责所在。
+拉纳莱是继承了特殊血统的艾莱亚。诶呀，让她听到就会被唠叨了，这个话题还是到此为止吧！</t>
+  </si>
+  <si>
     <t xml:space="preserve">少主作为帕罗米亚的继承人，希望他能更有操守一些。
 就因为有基尔巴德这样的人在，少主才会跟着瞎闹。
 斯塔莎公主在这个年纪举止就彬彬有礼，而且行事果断。简直就是宫廷的偶像！
@@ -2585,12 +2822,6 @@
     <t xml:space="preserve">我是代理市长诺拉。有什么事吗？</t>
   </si>
   <si>
-    <t xml:space="preserve">哎呀，您找我有什么事吗？
-帕罗米亚是历史悠久的提里斯大国。我很荣幸被这个王宫接纳。
-偶像…？…是外国的语言吗？
-在王宫的粉丝……啊……大……大家对我都很好。</t>
-  </si>
-  <si>
     <t xml:space="preserve">我对历史和传承很感兴趣。
 法利斯姐姐一生气就很可怕。
 帕罗米亚的王宫图书馆里有很多藏书，真是好地方。</t>
@@ -2639,12 +2870,22 @@
     <t xml:space="preserve">妹和立方体，哪个可怕？虽然我觉得妹更可爱一些。</t>
   </si>
   <si>
-    <t xml:space="preserve">你好啊，渡鸦。有什么事吗、
+    <t xml:space="preserve">你好啊，渡鸦。有什么事吗。
 来喝杯茶吧，渡鸦。
-我是『探究者』…也被称为『异界来客』。如你所见，我是个隐士。我为了获取世界上所有的知识献出了一切。
+我是『探求者』…也被称为『异界来客』。如你所见，我是个隐士。我为了获取世界上所有的知识献出了一切。
 …不过，亏你能找到这么偏僻的地方来啊。
-…这座城算得上是属于我的大图书馆，不过图书馆好像就该敞开大门迎接众人来访…所以我欢迎你的到来。
-任何人都有获取这世界上所有的知识的权力。你在此处自由行动即可。</t>
+…这座城是属于我的大图书馆，不过图书馆好像就该敞开大门迎接众人来访…所以我欢迎你的到来。
+任何人都有获取这世界上所有的知识的权力。你在此处自由行动即可。
+在这个世界的某个地方，好像有刻着伊尔瓦全部历史与真相的秘宝…。
+永恒的盟约…？这么古老的故事你也知道啊。
+你好，渡鸦。借你的书有认真读吗？
+把知识留给后世是获得知识之人的义务。
+你好，渡鸦。你有见过我的朋友斯兰吗？
+…这个头盔？它是很美的野兽吧。它是我的老朋友。
+……遮住脸的理由？10年战争之后，艾莱亚一直抬不起头啊…。
+……朋友们都先一步踏上旅途…。
+好像有个追逐妹犬之馆幻觉的疯子。
+战争还会发生吗。</t>
   </si>
   <si>
     <t xml:space="preserve">怎么？</t>
@@ -2762,6 +3003,53 @@
 好想摸雪波球！也想摸#brother2！
 雪波球有不同颜色的哦#brother2。如果能都带回家就好了#brother2。</t>
   </si>
+  <si>
+    <t xml:space="preserve">我叫娜娜苏，是茄子妖精哦～。
+你问我喜欢的东西是什么？当然是茄子啦～。
+斯普睿是个非常好的地方哦~大家都在开心地跳舞呢～。
+冒险中得到宝物当然很开心，但最开心的是一起冒险得到的羁绊哦～。
+我经常和冒险途中遇到的新朋友一起喝酒。非常开心呢～。
+当然也发生过悲伤的事情，但我仍然相信今后还会有新的邂逅所以在不断前进，这就是现在的我～。
+虽然相遇总有一天会结束，但我觉得在那之中得到的东西绝对不是徒劳哦～。
+据说是一只青色茄子的妖精创建了斯普睿……希望我有朝一日能试着超越她呢～。
+其实我小时候曾和青色茄子的妖精对练过哦。她虽然是妖精，但是很强壮呢～。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是莱伊娜！随便碰我的话会被电麻的！
+哎呀，冒险者。找我有什么事？
+和珀伊娜的关系？嗯～只是恶作剧伙伴而已？不过我们搭档冒险已经很久了。
+我并不讨厌娜娜苏哦？只是…想稍微捉弄一下，把她变成烤茄子！呀哈哈！
+我和珀伊娜、娜娜苏三个人第一次一起去冒险的时候，差点因为娜娜苏冒失死掉…多亏我机智才有了转机。真是的…
+虽然争夺包的时候我和娜娜苏是对手，但我偶尔也会和娜娜苏一起冒险哦。不过她基本都是负责去当诱饵啦！呀哈哈！
+包括我在内，最近斯普睿愿意去冒险的妖精变多了。不过竞争对手增加也不是什么坏事啦！
+…我发烧的时候，娜娜苏照顾过我。那时候的我无法好好向她道谢，但是我真的很感激。
+你问创立斯普睿的青色茄子妖精…？啊，她啊…以前我曾和她对练过，但是从没赢过！
+我本来还想着要从青色茄子妖精那扳回一局呢，但是不知什么时候她就离开了！…赢了就跑，真气人！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是珀伊娜，你要是敢多说废话就毒死你。
+…怎么？有什么事么？
+莱伊娜有时候把战斗想得太简单。说了多少遍冒险不是玩游戏，真是个笨蛋…
+娜娜苏太天真了。她说她很重视羁绊，但总有一天她会被那羁绊绊倒的…
+我和莱伊娜也算认识很久了，我只把她当成是恶作剧的伙伴。不过我并不讨厌和她一起冒险。
+我更喜欢发动奇袭，但是莱伊娜总是会立刻冲锋陷阵造成无谓的消耗…太笨了…
+你听莱伊娜说过和娜娜苏第一次冒险的事吗？那时候娜娜苏让大家遭遇了危险，后来还哭了鼻子，哈哈。
+…以前有次我丢了东西，娜娜苏还拼命的帮我找。明明平时我总是对她搞恶作剧之类的…真是个笨蛋…
+我和娜娜苏还有莱伊娜曾经一起受过青色茄子的妖精的训练。但是我的毒攻击对她几乎没有效果。
+也不知现在的我加上莱伊娜还有娜娜苏能不能联手打赢青色茄子的妖精。只是她从很久以前就不知去向了…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪波球酱，真可爱啊……嘿嘿嘿……。
+真羡慕自由自在的猫咪。如果世上有猫咪的神明，那一定是自由的化身吧。
+明明只想平凡度日，为什么麻烦总是找上门呢……*叹气*
+我也不知道自己是怎么和那位说话方式奇奇怪怪的冒险者完成交流的……。
+那个可爱的人偶冒险者，一直在寻找着谁呢……。
+那位黑翼的冒险者，好帅啊……。
+那位法师冒险者，好像带着本危险的书呢……。
+那位相信命运引导的冒险者，总感觉很热情呢。
+听说有位吸……猫？的冒险者……？
+米西利亚的魔女面包师，真是太厉害了！既是魔女，又是面包师！</t>
+  </si>
 </sst>
 </file>
 
@@ -2770,7 +3058,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2814,6 +3102,13 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2872,7 +3167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -2909,11 +3204,15 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1"/>
     </xf>
@@ -3012,9 +3311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3024,7 +3323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49667400" cy="126720"/>
+          <a:ext cx="49664160" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3162,14 +3461,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B77" sqref="B77"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B78" sqref="B78"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
@@ -3202,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3216,7 +3515,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3230,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -3244,7 +3543,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -3258,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -3272,7 +3571,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3286,7 +3585,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -3300,7 +3599,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -3314,7 +3613,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -3328,7 +3627,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -3342,7 +3641,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -3356,7 +3655,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -3370,7 +3669,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -3384,7 +3683,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -3398,7 +3697,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -3412,7 +3711,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -3426,7 +3725,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -3440,7 +3739,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -3454,7 +3753,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -3468,7 +3767,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -3482,7 +3781,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -3496,7 +3795,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -3510,7 +3809,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -3524,7 +3823,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -3538,7 +3837,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -3552,7 +3851,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3566,7 +3865,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
@@ -3580,7 +3879,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
@@ -3594,7 +3893,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3608,7 +3907,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
@@ -3622,7 +3921,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
@@ -3636,7 +3935,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -3650,7 +3949,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3664,7 +3963,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
@@ -3678,7 +3977,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -3692,7 +3991,7 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>106</v>
@@ -3706,7 +4005,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
@@ -3720,7 +4019,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -3734,7 +4033,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -3748,7 +4047,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -3762,7 +4061,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
@@ -3776,7 +4075,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -3790,7 +4089,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -3804,7 +4103,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -3818,7 +4117,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
@@ -3832,7 +4131,7 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -3846,7 +4145,7 @@
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -3860,7 +4159,7 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -3874,7 +4173,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -3888,7 +4187,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -3902,12 +4201,12 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3916,7 +4215,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -3930,12 +4229,12 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3944,12 +4243,12 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3958,12 +4257,12 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3972,7 +4271,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -3986,7 +4285,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -4000,7 +4299,7 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
@@ -4014,21 +4313,21 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="64" ht="12.8">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
@@ -4037,12 +4336,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" ht="32.8">
-      <c r="A65" s="1" t="s">
+    <row r="65" ht="12.8">
+      <c r="A65" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
@@ -4056,7 +4355,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
@@ -4065,17 +4364,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" ht="12.8">
+    <row r="67" ht="32.8">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>475</v>
-      </c>
-      <c r="C67" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4084,7 +4383,7 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>190</v>
@@ -4098,12 +4397,12 @@
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>477</v>
-      </c>
-      <c r="C69" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4112,7 +4411,7 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
@@ -4126,9 +4425,9 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>479</v>
-      </c>
-      <c r="C71" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -4140,7 +4439,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>202</v>
@@ -4149,26 +4448,26 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" ht="22.35">
+    <row r="73" ht="12.8">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>481</v>
-      </c>
-      <c r="C73" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" ht="12.8">
+    <row r="74" ht="22.35">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>208</v>
@@ -4182,9 +4481,9 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>483</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -4196,7 +4495,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
@@ -4210,13 +4509,27 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="78" ht="12.8">
+      <c r="A78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>507</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4239,10 +4552,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4279,269 +4592,269 @@
     </row>
     <row r="5" ht="74.6">
       <c r="A5" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" ht="43.25">
       <c r="A6" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" ht="43.25">
       <c r="A7" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" ht="43.25">
       <c r="A8" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" ht="43.25">
       <c r="A9" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" ht="74.6">
       <c r="A10" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" ht="43.25">
       <c r="A11" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="43.25">
       <c r="A12" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" ht="95.5">
       <c r="A13" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" ht="22.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" ht="32.8">
       <c r="A14" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" ht="32.8">
       <c r="A15" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" ht="22.35">
       <c r="A17" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" ht="22.35">
       <c r="A18" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" ht="200.7">
       <c r="A19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" ht="168.65">
       <c r="A20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" ht="241.75">
       <c r="A21" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" ht="32.8">
       <c r="A22" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" ht="22.35">
       <c r="A23" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4594,184 +4907,184 @@
     </row>
     <row r="5" ht="64.15">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" ht="22.35">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" ht="53.7">
       <c r="A12" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" ht="74.6">
       <c r="A13" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" ht="116.4">
       <c r="A14" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" ht="147.75">
       <c r="A15" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" ht="116.4">
       <c r="A16" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" ht="168.65">
       <c r="A17" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4790,14 +5103,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B37" sqref="B37"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B43" sqref="B43"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4831,466 +5144,550 @@
     <row r="4" ht="12.8">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="43.25">
+    <row r="5" ht="95.5">
       <c r="A5" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
+        <v>540</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" ht="116.4">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" ht="64.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" ht="43.25">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" ht="22.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" ht="32.8">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" ht="53.7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" ht="43.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" ht="22.35">
       <c r="A10" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" ht="53.7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" ht="43.25">
       <c r="A11" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" ht="64.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" ht="32.8">
       <c r="A12" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>525</v>
+        <v>339</v>
+      </c>
+      <c r="B12" t="s">
+        <v>547</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" ht="12.8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" ht="53.7">
       <c r="A13" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" ht="43.25">
+        <v>343</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" ht="64.15">
       <c r="A14" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" t="s">
-        <v>527</v>
+        <v>345</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8">
       <c r="A15" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="16" ht="43.25">
       <c r="A16" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" ht="32.8">
       <c r="A17" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" ht="44.75">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" ht="32.8">
       <c r="A18" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" ht="32.8">
       <c r="A19" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" ht="56.7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" ht="44.75">
       <c r="A20" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" ht="91">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" ht="32.8">
       <c r="A21" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" ht="67.15">
+        <v>367</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" ht="56.7">
       <c r="A22" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B22" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" ht="13.8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" ht="91">
       <c r="A23" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>536</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" ht="74.6">
+        <v>557</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" ht="55.95">
       <c r="A24" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B24" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8">
+      <c r="A25" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="B25" t="s">
-        <v>538</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" ht="13.8">
-      <c r="A26" s="10" t="s">
-        <v>377</v>
+        <v>559</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" ht="179.1">
+      <c r="A26" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>539</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="10" t="s">
-        <v>380</v>
+        <v>560</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" ht="12.8">
+      <c r="A27" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>540</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>381</v>
+        <v>561</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="A28" s="1" t="s">
-        <v>383</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8">
+      <c r="A28" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="B28" t="s">
-        <v>541</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" ht="147.75">
-      <c r="A29" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>387</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" ht="95.5">
+      <c r="A29" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" t="s">
+        <v>563</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>390</v>
+      </c>
       <c r="D29" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" ht="147.75">
-      <c r="A30" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>543</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" ht="12.8">
+      <c r="A30" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" t="s">
+        <v>564</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" ht="147.75">
+        <v>393</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" ht="126.85">
       <c r="A31" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" ht="126.85">
       <c r="A32" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>396</v>
+        <v>566</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" ht="95.5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" ht="126.85">
       <c r="A33" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" ht="116.4">
-      <c r="A34" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B34" t="s">
-        <v>547</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" ht="22.35">
+      <c r="A34" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="35" ht="105.95">
-      <c r="A35" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B35" t="s">
-        <v>548</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" ht="85.05">
+      <c r="A35" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>569</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" ht="105.95">
-      <c r="A36" s="10" t="s">
-        <v>407</v>
+      <c r="A36" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B36" t="s">
-        <v>549</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" ht="116.4">
-      <c r="A37" s="10" t="s">
-        <v>410</v>
+        <v>570</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" ht="105.95">
+      <c r="A37" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="B37" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" ht="105.95">
+      <c r="A38" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" t="s">
+        <v>572</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" ht="116.4">
+      <c r="A39" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B39" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" ht="105.95">
+      <c r="A40" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B40" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" ht="158.2">
+      <c r="A41" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41" t="s">
+        <v>575</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" ht="126.85">
+      <c r="A42" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B42" t="s">
+        <v>576</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" ht="105.95">
+      <c r="A43" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" t="s">
+        <v>577</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Dialog/dialog.xlsx
+++ b/Original/CN/Dialog/dialog.xlsx
@@ -5,13 +5,14 @@
   <workbookPr autoCompressPictures="1"/>
   <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId3"/>
     <sheet name="rumor" sheetId="2" r:id="rId4"/>
     <sheet name="zone" sheetId="3" r:id="rId5"/>
     <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="asmr" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="631">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -274,6 +275,33 @@
     <t xml:space="preserve">Okay sweetie, I need #1 Orens in front.</t>
   </si>
   <si>
+    <t xml:space="preserve">blooming1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ほう、ぬしの仲間はよく熟れておるな？ 長い旅で育まれた絆が、今まさに花開こうとしておるぞ。わっちが手助けしてやらぬこともないが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmph, your companion seems well ripened indeed. The bond you’ve nurtured through your travels is ready to blossom. Perhaps I shall help it along...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blooming2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フホホホホホホ、咲けぃ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muwohohohohohoho, BLOOM!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blooming3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フホホ、 ぬしの誠意次第じゃな。 わっちを喜ばせてみせるがよい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muwohoho. Your sincerity shall decide my favor. Delight me, if you dare.</t>
+  </si>
+  <si>
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
@@ -323,6 +351,15 @@
   </si>
   <si>
     <t xml:space="preserve">If you were just a little more charming, perhaps.#newline(#1 charisma required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inviteReq1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1を持ってきて{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you give me #1?</t>
   </si>
   <si>
     <t xml:space="preserve">talk_hobby</t>
@@ -1382,6 +1419,104 @@
 Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
   </si>
   <si>
+    <t xml:space="preserve">namamani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんだこの場所は？
+神々なんて、ただ人間より少し強くて傲慢なだけじゃないか。
+人間の行動は、常に感情の誤作動に導かれる。
+機械が壊れるのは設計の責任だろう？
+機械はやがて人間の代わりに地上を支配するだろう。
+自分が作ったモノは全て覚えている。例外などない。
+…神などという不合理な存在を認めるものか。
+なぜ、ここには私が二人いる？
+退屈な場所だ。ただ一点、私が二人いることをのぞけばな…
+…ああ、この腕か？ もちろん自分で取り替えたぞ。
+私が神々の座を狙っている…？ ふん、面白い冗談だ。お前の頭を分解してみたいよ。
+…やけに猫が多いな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this place?
+Gods? They're just a little stronger and more arrogant than humans.
+Human behavior is always guided by the malfunction of emotion.
+When a machine breaks down, it’s the fault of its design, isn’t it?
+One day, machines will rule the earth in place of humankind.
+I remember everything I’ve created—without exception. 
+I refuse to acknowledge something as irrational as a god.
+Why are there two of me here?
+What a dull place. Except, of course, for the fact that there are two of me.
+...This arm? Of course I replaced it myself.
+You think I’m after the gods’ throne? Heh, what a funny thought. I’d much rather take your head apart and see how it works.
+...Why are there so many cats here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namamani2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おかしい、何も思い出せない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange... I can't remember anything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keeper_garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タネローン？ ああ、誰かが庭をそう呼ぶのを聞いたことがあるな。
+なんじゃ、ぬしもわっちに可愛がられたい口か？ 
+時はここでは何の意味も持たぬ。
+ほう、旅人か？ 迷子か？ それとも、 ここがどこかも知らずに歩いてきた愚か者か？
+フホホホ、わっちに挨拶とは律儀なやつじゃ。
+猫は、この世でいちばん尊いのう。
+やがて客はこの庭を忘れ、元いた場所へ、元いた時へと還っていくのじゃ。 
+この庭では、すべての魂が平穏を知るのじゃ。
+庭に招かれた者は皆、永遠の安らぎの欠片を胸に抱き、去っていく。
+フホホ、ぬしにも見えるか？ 水面を漂う花びらのように、時の触れぬ静寂に浮かぶ無数の魂が。
+その静寂の中で眠ったすべての魂を、庭は今も覚えておる。 
+いつか、幸運の女神を思う存分モフりたいものじゃ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanelorn? Ah, I’ve heard someone call this place by that name before.
+What is it? Do you wish to be doted on by me as well?
+Time holds no meaning here.
+Oh? A traveler, a lost one, or perhaps just a fool wandering without knowing where you’ve come?
+Muwohoho... how courteous of you to greet me, mortal.
+Cats truly are the greatest, aren’t they?
+In the end, every guest leaves—forgetting this garden, and returning to where, and when, they once belonged.
+Here in this garden, all souls come to know peace.
+All who wander here leave with a fragment of its eternal calm.
+Here, hearts drift like petals upon still water, untouched by time.
+This garden remembers every soul that has ever found rest within its silence.
+Someday, I shall fluff the Goddess of Fortune to my heart’s content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erishe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふふ、兄さん、どこにいったの？
+こんにちは、旅の人。ゆっくりしていってください。
+とても平和な場所です。ここにいると、まるで時間を忘れてしまうようで…
+お芝居を見に行く途中で、兄さんとはぐれてしまって。何が起こったのでしょう？
+兄さんも私も、お芝居にはあまり興味はないんです。でも、ザナンでは貴族のたしなみですから。
+知っていましたか…？ アルティハイトには妖精がいるんですよ？
+ああ見えても、兄さんは私がいないとだらしないんですよ、ふふ。
+ロイターさんは、演奏会場で石を投げて、出入り禁止になったことがあるようですね。
+差し入れを持っていくと、ロイターさんったら、いまだに少年みたいに照れるんですよ。
+ロイテル…？ いえ、ロイターさんなら知ってますけど…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hehe, brother, where did you go?
+Hello, traveler. Please, take your time and rest here.
+This is such a peaceful place. Being here almost makes you forget about time itself...
+I got separated from my brother on the way to the play. I wonder what happened?
+Neither of us is really interested in theater, but in Zanan, it’s considered part of a noble’s education.
+Did you know? …There are fairies in Altheheit, you know.
+Even though he doesn’t look it, my brother is hopeless without me, hehe.
+Loyter once threw a stone at a concert hall and got himself banned from entering.
+Whenever I bring Loyter a little gift, he still blushes like a boy.
+Loytel...? I don’t think so, though I do know Loyter.</t>
+  </si>
+  <si>
     <t xml:space="preserve">larnneire</t>
   </si>
   <si>
@@ -2243,6 +2378,205 @@
 That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
   </si>
   <si>
+    <t xml:space="preserve">eyth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…ピー…
+@2…ザザザ…
+@2…ザザ…ガガ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…bneep…
+@2…zzzzzz…
+@2…zshh…beep……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…なで…なで…
+@2…ぎゅぅーっ…
+@2…ぎゅーーーーっ…
+@2…よし…よし…
+@2…ば…ばか…
+@2…か…勘違いしないでよね…
+@2…べ…べつに…あなたのためじゃ…
+@2…べ…べつに…
+@2…ひ…暇だっただけなんだからね…
+@2…んっ…っしょ…
+@2…い…癒やされなさい…
+@2…ふ…ふあぁぁ…
+@2…えっほ…えっほ…
+@2…迷える…ものたちよ…
+@2…い…癒やし…
+@2…傷ついた…魂を…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…p-pat…pat…
+@2…huuug…
+@2…huuuuuug…
+@2…there you go…there you go…
+@2…y-you idiot…
+@2…d-don’t get the wrong idea, okay…
+@2…i-it’s not like i’m doing this for you or anything…
+@2…i-it’s…really not…
+@2…i just…h-happened to have some time, that’s all…
+@2…mm…there…
+@2…y-you should…let yourself relax…
+@2…f-fuuaaah…
+@2…eh-ho…eh-ho…
+@2…oh…you who wander…
+@2…h-healing…
+@2…for your…wounded souls…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…ゴリ…ゴリゴリ…
+@2…ゴゴゴゴ……
+@2…ズズズ……
+@2…ドシャァ……
+@2…ズシャッ…ズシャァ……
+@2…ガリ…ガリガリ……
+@2…ゴォ……ゴォォ……
+@2…ミシ…ミシミシ……
+@2…バキ……バキバキ……
+@2…ザラ……ザラザラ……
+@2…ゴン……ゴン……
+@2…ズン……ズゥン……
+@2…ドゥン……
+@2…フハハハハハハハ……
+@2…フハハ……フハァ……
+@2…フハーン……
+@2…フフ……フハ……
+@3フハハハハハハハハハハハハハ！ 
+@3フハーン
+@2…フフ……
+@2…フー…！…フー…！……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…grrr…grind grind…
+@2…goooogoooo……
+@2…rumble……
+@2…crashhh……
+@2…shrrk…shraaa……
+@2…scrape…scrrrape……
+@2…gooo……grooo……
+@2…creak…craaack……
+@2…crack…crack crack……
+@2…grain…grind grind……
+@2…thud……thud……
+@2…boom……booom……
+@2…dunn……
+@2…muwahaha…
+@2…mwahahahaha…
+@2…muhan…
+@2…muwaha…muwaha…
+@3MUWAHAHAHAHAHAHAHA!
+@3MUHAN
+@2…muha……
+@2…mu…ha……mu…ha……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…大丈夫…ママがちゃんとそばにいるからね…
+@2…おやすみ…いい子…
+@2…ママのお胸に…もたれてもいいよ…
+@2…ちゃんと生きてるだけで…えらい…
+@2…ほら…頭なでなで…安心して…
+@2…ほら…力を抜いて…
+@2…よしよし…
+@2…このまま…ぬくぬくしていきましょ…
+@2…なで…なで…力、抜いて…
+@2…ん…よしよし…いい子…
+@2…ぬくぬく…このまま…
+@2…もう…何も考えなくて…
+@2…ふわふわでしょう…落ち着くわね…
+@2…この尻尾…巻いてあげる…
+@2…ふわ…もふ…ほら…尻尾…
+@2…すり…すり…やさしく…巻くわね…
+@2…ぬく…ぬく…眠くなる…
+@2…そのまま…くっついて…
+@2…すぅ…はぁ…一緒に…呼吸…
+@2…ママだよ…
+@2…なで…なで…力…抜いて…
+@2…ほら…ぎゅううぅぅぅううっ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…it’s okay…mommy’s right here with you…
+@2…good night…sweet one…
+@2…you can rest against mommy…it’s okay…
+@2…just being here…is already enough…
+@2…here…gentle head pats…you’re safe…
+@2…that’s it…relax…
+@2…there there…
+@2…let’s stay warm…just like this…
+@2…pat…pat…let it go…
+@2…mm…there there…good one…
+@2…warm…cozy…just like this…
+@2…no more thinking…now…
+@2…fluffy, isn’t it…it calms you…
+@2…i’ll wrap you…with my tail…
+@2…fluff…mofu…here…my tail…
+@2…rub…rub…gently…wrapping you…
+@2…warm…cozy…getting sleepy…
+@2…stay close…like that…
+@2…inhale…exhale…with me…
+@2…it’s mommy…
+@2…pat…pat…let it go…
+@2…there…huuuuuuuuuug…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…ククク……
+@2…クク……
+@2…ク……ククク……
+@2…クク……クク…
+@2…ほら…還れ…
+@2…元素へ……
+@2…還れ…
+@2…元素へ…クク…
+@2…ク…ク…ク……
+@2…ク…ク…
+@2…クク…ク…
+@2…はやく…
+@2…クククク…
+@2…ククククク…
+@2…クク…クク…クク…
+@2………
+@2………
+@2……キウイ…クク…
+@2……
+@2…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…heh heh heh……
+@2…heh heh……
+@2…heh……heh heh……
+@2…heh heh……heh heh…
+@2…now… return…
+@2…to the elements……
+@2…return…
+@2…to the elements… heh heh…
+@2…heh… heh… heh……
+@2…heh… heh…
+@2…heh heh… heh…
+@2…hurry…
+@2…heh heh heh heh…
+@2…heh heh heh heh heh…
+@2…heh heh… heh heh… heh heh…
+@2………
+@2………
+@2……kiwi… heh heh…
+@2……
+@2… </t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -2325,6 +2659,15 @@
     <t xml:space="preserve">这样啊{。}，那请先付{我}#1奥伦{。}。</t>
   </si>
   <si>
+    <t xml:space="preserve">哦，汝的伙伴已经相当成熟了啊？ 在长久旅途期间培育出的牵绊，现在正要迎来绽放的时刻。咱倒是能帮汝一把…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼呵呵呵呵呵呵，绽放吧！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼呵呵，那就要看汝的诚意了。来试着取悦咱吧。</t>
+  </si>
+  <si>
     <t xml:space="preserve">身材不错嘛{。}。{好}，{我}买了{。}。</t>
   </si>
   <si>
@@ -2341,6 +2684,9 @@
   </si>
   <si>
     <t xml:space="preserve">如果{你}更有些魅力的话或许可以{。}。#newline(魅力需要#1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给{我}把#1拿来吧{。}。</t>
   </si>
   <si>
     <t xml:space="preserve">{我}的兴趣是#1{。}。</t>
@@ -2486,8 +2832,8 @@
   </si>
   <si>
     <t xml:space="preserve">{我}喜欢讨论科学{。}。
-艾斯・泰尔是第七纪的文明{。}。该文明有着高度发达的科学{。}。
-艾斯・泰尔似乎认为魔法和科学是对立的{。}。
+艾斯·泰尔是第七纪的文明{。}。该文明有着高度发达的科学{。}。
+艾斯·泰尔似乎认为魔法和科学是对立的{。}。
 据说在新王国耶鲁，机械人偶正在从事和人类一样的工作{。}。</t>
   </si>
   <si>
@@ -2500,7 +2846,7 @@
     <t xml:space="preserve">{我}对世界形势很感兴趣{。}。
 艾沃达纳是位于东大陆沙漠的强大帝国{。}。
 据说新王国耶鲁是由逃离帝国的奴隶们建立的{。}。
-总感觉扎南被帝国的气息笼罩着{。}。</t>
+总感觉泽纳恩被帝国的气息笼罩着{。}。</t>
   </si>
   <si>
     <t xml:space="preserve">信仰比什么都重要{。}。
@@ -2750,6 +3096,49 @@
 #race啊，在你面前的是活了一千年以上的流放者{。}。</t>
   </si>
   <si>
+    <t xml:space="preserve">这是什么地方？
+所谓的神，不过是比人类稍强，却又更加傲慢的家伙罢了。
+人类的行为，常常会因为感情的影响而出现执行错误。
+机械会损坏该怪设计得有问题吧？
+机械迟早有一天会取代人类统治这个世界吧。
+我记得我创造的一切事物。无一例外。
+…我怎会承认神这种不合理的东西。
+为什么这里有两个我？
+真是个无聊的地方。这地方有两个我的情况除外…
+…你说这只手臂？ 当然是我自己换的。
+你说我觊觎神的宝座…？ 哼，真是可笑。我都想拆开你的脑袋看看了。
+…这里的猫出奇的多啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好奇怪，什么都想不起来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔内隆？ 噢，咱确实曾听到过有人这么称呼这个庭院。
+怎么，汝也想被咱宠爱么？ 
+时间在这里毫无意义。
+呵，汝是旅行至此，还是迷路至此？又或者是根本不知这里是哪里就随便闯了进来的笨蛋呢。
+呼呵呵，还特意向咱打招呼，真是有礼貌啊。
+这世间最棒的就是猫了。
+客人们迟早会忘记这个庭院，回到原本的时空。
+所有的灵魂，都可在这个庭院得享安宁。
+被邀请到这个庭院的诸位，都怀着永恒安宁的碎片离开了。
+呼呵呵，汝也看得见吗？那些灵魂就像漂浮在水面上的花瓣一样，漂浮在时间无法触及的寂静中。
+庭院会记得所有曾在那寂静中入睡的灵魂。
+愿有朝一日能尽情抚摸幸运女神呢。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呵呵，哥哥，你去哪里了？
+您好，旅行者。请好好享受在这里的时光吧。
+这里真是个和平的地方。待在这里仿佛都要忘记时间的存在了…
+我在去看戏剧的途中和哥哥走散了。到底发生了什么呢？
+其实哥哥和我都对戏剧没什么兴趣。只不过欣赏戏剧在泽纳恩来说可是一种身为贵族的修养呢。
+你知道吗…？ 亚尔蒂海特似乎有妖精哦？
+别看哥哥那样子，如果没有我的话他可是很邋遢的，呵呵。
+因为罗缇先生向演奏会场扔过石头，所以他被禁止入内了。
+我要是去给罗缇先生送些什么的话，他还是会像少年一样害羞呢。
+罗伊特尔…？ 不，我只认识罗缇先生…</t>
+  </si>
+  <si>
     <t xml:space="preserve">哎呀，你听过那个变成野兽的王子的童话吗？
 我们是来自温戴尔之森的使者。
 为了谒见公正的贾比王，洗清森林和艾莱亚人民蒙受的不白之冤，我们正朝着王都帕罗米亚行进。
@@ -2822,6 +3211,12 @@
     <t xml:space="preserve">我是代理市长诺拉。有什么事吗？</t>
   </si>
   <si>
+    <t xml:space="preserve">哎呀，您找我有什么事吗？
+帕罗米亚是历史悠久的提里斯大国。我很荣幸被这个王宫接纳。
+偶像…？…是异国语言吗？
+在王宫的粉丝……啊……大……大家对我都很好。</t>
+  </si>
+  <si>
     <t xml:space="preserve">我对历史和传承很感兴趣。
 法利斯姐姐一生气就很可怕。
 帕罗米亚的王宫图书馆里有很多藏书，真是好地方。</t>
@@ -2848,7 +3243,7 @@
   </si>
   <si>
     <t xml:space="preserve">要听首歌吗？
-我以前侍奉着扎南的王室，但是，我搞砸了…
+我以前侍奉着泽纳恩的王室，但是，我搞砸了…
 现在米西利亚才是我的故乡。
 看见梅尔文那家伙了吗？我刚好想唱一首歌呢。
 我的妻子是米西利亚最美丽最聪明的人。我简直配不上她。</t>
@@ -2863,7 +3258,7 @@
   <si>
     <t xml:space="preserve">你是什么人？
 虽然冒险者这名字听起来不错，但他们不就是一群不愿工作的流浪汉吗？
-帝国的威胁自不必说，一直小心隐藏着真实意图的扎南也让人毛骨悚然呢。
+帝国的威胁自不必说，一直小心隐藏着真实意图的泽纳恩也让人毛骨悚然呢。
 据说帕罗米亚的泽茵王是有名的君主，而他的儿子贾比王子则是个玩世不恭的公子哥。看来任何国家都会为继承人的问题烦恼啊！</t>
   </si>
   <si>
@@ -3049,6 +3444,98 @@
 那位相信命运引导的冒险者，总感觉很热情呢。
 听说有位吸……猫？的冒险者……？
 米西利亚的魔女面包师，真是太厉害了！既是魔女，又是面包师！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…哔—…
+@2…沙沙沙…
+@2…沙沙…噶噶…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…抚摸…抚摸…
+@2…抱抱…
+@2…紧抱…
+@2…乖…乖…
+@2…笨…笨蛋…
+@2…别…别误会了…
+@2…才…才不是…为了你呢…
+@2…才…才不是…
+@2…只…只是想打发无聊的时间罢了…
+@2…嗯…那里…
+@2…嗯…请放松吧…
+@2…呼…呼—…
+@2…摸摸…摸摸…
+@2…迷茫的…人们啊…
+@2…治…治愈…
+@2…受伤的…灵魂…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…嘎吱…嘎吱嘎吱…
+@2…轰轰轰轰……
+@2…咯吱咯吱……
+@2…垮拉……
+@2…轰隆…哗啦……
+@2…咔哩…咔哩咔哩……
+@2…轰……轰—……
+@2…咯吱…咯吱吱吱……
+@2…咔吧……嘎吧吧……
+@2…喳啦……喳啦喳啦……
+@2…咚……咚……
+@2…咣……咣……
+@2…咚……
+@2…呼哈哈哈哈哈哈哈……
+@2…呼哈哈……呼哈啊……
+@2…呼哈哇……
+@2…呼……呼哈……
+@3呼哈哈哈哈哈哈哈！ 
+@3呼哈哇
+@2…呼呼……
+@2…呼—…！ …呼—…！……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…别怕…妈妈会一直在你身边…
+@2…晚安…好孩子…
+@2…可以来…妈妈怀里哦…
+@2…只是好好活着…就很了不起了…
+@2…来…让我摸摸头…放心吧…
+@2…来…放松下来…
+@2…乖乖…
+@2…就这样…暖暖和和地…
+@2…摸摸…摸摸…力气，放松…
+@2…嗯…乖乖…好孩子…
+@2…就这样…暖暖的…
+@2…什么都…不用想了…
+@2…毛茸茸的…很安心吧…
+@2…用这尾巴…把你卷起来…
+@2…松松…软软…来…尾巴…
+@2…轻轻地…轻轻地…温柔…卷起…
+@2…温暖…温暖…你困了…
+@2…就这样…紧贴在一起…
+@2…吸…哈啊…一起…呼吸…
+@2…妈妈在哦…
+@2…摸摸…摸摸…力气，放松…
+@2…来…*紧紧抱住*…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2…呵呵呵……
+@2…呵呵……
+@2…呵……呵呵呵……
+@2…呵呵……呵呵…
+@2…来吧……回去……
+@2…回到元素之中……
+@2…回去……
+@2…回到元素之中……呵呵……
+@2…呵……呵……呵……
+@2…呵……呵……
+@2…呵呵……呵……
+@2…快点……
+@2…呵呵呵呵……
+@2…呵呵呵呵呵……
+@2…呵呵……呵呵……呵呵……
+@2………
+@2………
+@2……奇异果……呵呵……
+@2……
+@2… </t>
   </si>
 </sst>
 </file>
@@ -3099,6 +3586,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family/>
@@ -3109,13 +3603,6 @@
       <color rgb="FF000000"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3167,7 +3654,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -3188,6 +3675,10 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="1"/>
@@ -3200,31 +3691,19 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -3311,9 +3790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>280800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3323,7 +3802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49664160" cy="123480"/>
+          <a:ext cx="49660200" cy="119520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3461,14 +3940,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B78" sqref="B78"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B82" sqref="B82"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
@@ -3501,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3515,7 +3994,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3529,7 +4008,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -3543,7 +4022,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -3557,7 +4036,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -3571,7 +4050,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3585,7 +4064,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -3599,7 +4078,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -3613,7 +4092,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -3627,7 +4106,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -3636,12 +4115,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -3655,7 +4134,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -3669,7 +4148,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -3683,7 +4162,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -3697,7 +4176,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -3711,7 +4190,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -3725,7 +4204,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -3739,7 +4218,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -3753,7 +4232,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -3767,7 +4246,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -3781,7 +4260,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -3795,7 +4274,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -3809,7 +4288,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -3823,7 +4302,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -3837,7 +4316,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -3851,7 +4330,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3860,88 +4339,88 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" ht="12.8">
+    <row r="31" ht="20.1" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" ht="22.35">
+    <row r="32" ht="20.1" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>459</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
+        <v>501</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" ht="20.1" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>502</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" ht="22.35">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>464</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>498</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -3949,7 +4428,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3963,9 +4442,9 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>467</v>
-      </c>
-      <c r="C38" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3977,9 +4456,9 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>468</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3991,9 +4470,9 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>469</v>
-      </c>
-      <c r="C40" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4005,9 +4484,9 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>470</v>
-      </c>
-      <c r="C41" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4019,7 +4498,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -4033,7 +4512,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -4047,7 +4526,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -4061,21 +4540,21 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" ht="22.35">
+    <row r="46" ht="12.8">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -4089,7 +4568,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -4103,7 +4582,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -4117,21 +4596,21 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1">
+    <row r="50" ht="22.35">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -4140,12 +4619,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1">
+    <row r="51" ht="12.8">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -4154,12 +4633,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" ht="22.35">
+    <row r="52" ht="12.8">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -4173,7 +4652,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -4182,12 +4661,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" ht="12.8">
+    <row r="54" ht="20.1" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -4196,26 +4675,26 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" ht="12.8">
+    <row r="55" ht="20.1" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" ht="12.8">
+    <row r="56" ht="22.35">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -4229,7 +4708,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -4243,12 +4722,12 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4257,7 +4736,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -4271,7 +4750,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -4285,7 +4764,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -4299,12 +4778,12 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4313,12 +4792,12 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4327,54 +4806,54 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="65" ht="12.8">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" ht="32.8">
+    <row r="66" ht="12.8">
       <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" ht="32.8">
+    <row r="67" ht="12.8">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4383,54 +4862,54 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>497</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="69" ht="12.8">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>498</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="70" ht="12.8">
+    <row r="70" ht="32.8">
       <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71" ht="12.8">
+    <row r="71" ht="32.8">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4439,12 +4918,12 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4453,21 +4932,21 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" ht="22.35">
+    <row r="74" ht="12.8">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>208</v>
@@ -4481,7 +4960,7 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>211</v>
@@ -4495,7 +4974,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
@@ -4509,7 +4988,7 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>217</v>
@@ -4518,18 +4997,74 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" ht="12.8">
+    <row r="78" ht="22.35">
       <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>507</v>
-      </c>
-      <c r="C78" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>220</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="79" ht="12.8">
+      <c r="A79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" t="s">
+        <v>547</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" ht="12.8">
+      <c r="A80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" ht="12.8">
+      <c r="A81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>549</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" ht="12.8">
+      <c r="A82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>550</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4552,309 +5087,309 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.63" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.71" style="6" customWidth="1"/>
+    <col min="3" max="3" width="117.64" style="6" customWidth="1"/>
+    <col min="4" max="4" width="122.68" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="12.8">
-      <c r="C2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" ht="12.8">
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" ht="12.8">
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" ht="74.6">
-      <c r="A5" s="5" t="s">
-        <v>222</v>
+      <c r="A5" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>224</v>
+        <v>551</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6" ht="43.25">
-      <c r="A6" s="5" t="s">
-        <v>225</v>
+      <c r="A6" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>227</v>
+        <v>552</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" ht="43.25">
-      <c r="A7" s="5" t="s">
-        <v>228</v>
+      <c r="A7" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>230</v>
+        <v>553</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8" ht="43.25">
-      <c r="A8" s="5" t="s">
-        <v>231</v>
+      <c r="A8" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>233</v>
+        <v>554</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" ht="43.25">
-      <c r="A9" s="5" t="s">
-        <v>234</v>
+      <c r="A9" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>236</v>
+        <v>555</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="10" ht="74.6">
-      <c r="A10" s="5" t="s">
-        <v>237</v>
+      <c r="A10" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>513</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>239</v>
+        <v>556</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" ht="43.25">
-      <c r="A11" s="5" t="s">
-        <v>240</v>
+      <c r="A11" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>514</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>242</v>
+        <v>557</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="12" ht="43.25">
-      <c r="A12" s="5" t="s">
-        <v>243</v>
+      <c r="A12" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>245</v>
+        <v>558</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="13" ht="95.5">
-      <c r="A13" s="5" t="s">
-        <v>246</v>
+      <c r="A13" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>516</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>248</v>
+        <v>559</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" ht="32.8">
-      <c r="A14" s="5" t="s">
-        <v>249</v>
+      <c r="A14" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>251</v>
+        <v>560</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="15" ht="32.8">
-      <c r="A15" s="5" t="s">
-        <v>252</v>
+      <c r="A15" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>254</v>
+        <v>561</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="16" ht="12.8">
-      <c r="A16" s="5" t="s">
-        <v>255</v>
+      <c r="A16" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>257</v>
+        <v>562</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="17" ht="22.35">
-      <c r="A17" s="5" t="s">
-        <v>258</v>
+      <c r="A17" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>260</v>
+        <v>563</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="18" ht="22.35">
-      <c r="A18" s="5" t="s">
-        <v>261</v>
+      <c r="A18" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>263</v>
+        <v>564</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" ht="200.7">
-      <c r="A19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>266</v>
+      <c r="A19" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" ht="168.65">
-      <c r="A20" s="7" t="s">
-        <v>267</v>
+      <c r="A20" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>269</v>
+        <v>566</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="21" ht="241.75">
-      <c r="A21" s="5" t="s">
-        <v>270</v>
+      <c r="A21" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="B21" t="s">
-        <v>524</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>272</v>
+        <v>567</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="22" ht="32.8">
-      <c r="A22" s="5" t="s">
-        <v>273</v>
+      <c r="A22" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>275</v>
+        <v>568</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="23" ht="22.35">
-      <c r="A23" s="5" t="s">
-        <v>276</v>
+      <c r="A23" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>278</v>
+        <v>569</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4876,10 +5411,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4907,184 +5442,184 @@
     </row>
     <row r="5" ht="64.15">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" ht="22.35">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" ht="53.7">
       <c r="A12" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" ht="74.6">
       <c r="A13" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" ht="116.4">
       <c r="A14" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>536</v>
+        <v>318</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>579</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" ht="147.75">
       <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>537</v>
+        <v>321</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" ht="116.4">
       <c r="A16" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>538</v>
+        <v>324</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>581</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" ht="168.65">
       <c r="A17" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>539</v>
+        <v>327</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>582</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5103,14 +5638,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B47" sqref="B47"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -5144,550 +5679,733 @@
     <row r="4" ht="12.8">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="95.5">
+    <row r="5" ht="137.3">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" ht="116.4">
+        <v>583</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" ht="12.8">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
-      <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" ht="126.85">
+      <c r="A7" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" ht="32.8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" ht="105.95">
       <c r="A8" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" ht="116.4">
       <c r="A9" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" ht="22.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" ht="137.3">
       <c r="A10" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" ht="43.25">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" ht="32.8">
       <c r="A12" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" ht="53.7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" ht="64.15">
       <c r="A13" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" ht="64.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" ht="22.35">
       <c r="A14" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>549</v>
+        <v>357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>592</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" ht="12.8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" ht="43.25">
       <c r="A15" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" ht="43.25">
+        <v>361</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" ht="32.8">
       <c r="A16" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>538</v>
+        <v>594</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" ht="32.8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" ht="53.7">
       <c r="A17" s="1" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" ht="32.8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" ht="64.15">
       <c r="A18" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" t="s">
-        <v>552</v>
+        <v>369</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>596</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" ht="32.8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" ht="12.8">
       <c r="A19" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" ht="44.75">
+        <v>373</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" ht="43.25">
       <c r="A20" s="1" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B20" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" ht="32.8">
       <c r="A21" s="1" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" ht="56.7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" ht="32.8">
       <c r="A22" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B22" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" ht="91">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" ht="32.8">
       <c r="A23" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B23" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" ht="55.95">
+        <v>385</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" ht="44.75">
       <c r="A24" s="1" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
-        <v>558</v>
+        <v>602</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" ht="13.8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" ht="32.8">
       <c r="A25" s="1" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s">
-        <v>559</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" ht="179.1">
+        <v>603</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" ht="56.7">
       <c r="A26" s="1" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B26" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" ht="12.8">
-      <c r="A27" s="11" t="s">
-        <v>384</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" ht="91">
+      <c r="A27" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B27" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" ht="13.8">
-      <c r="A28" s="11" t="s">
-        <v>386</v>
+        <v>397</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" ht="55.95">
+      <c r="A28" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B28" t="s">
-        <v>562</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" ht="95.5">
-      <c r="A29" s="11" t="s">
-        <v>389</v>
+        <v>606</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" ht="13.8">
+      <c r="A29" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="B29" t="s">
-        <v>563</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" ht="12.8">
+        <v>607</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" ht="179.1">
       <c r="A30" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B30" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" ht="126.85">
-      <c r="A31" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>565</v>
+        <v>406</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" ht="12.8">
+      <c r="A31" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" t="s">
+        <v>609</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" ht="126.85">
-      <c r="A32" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" ht="126.85">
-      <c r="A33" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>402</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8">
+      <c r="A32" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" t="s">
+        <v>610</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" ht="95.5">
+      <c r="A33" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33" t="s">
+        <v>611</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" ht="22.35">
-      <c r="A34" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="35" ht="85.05">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" ht="12.8">
+      <c r="A34" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" t="s">
+        <v>612</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" ht="126.85">
       <c r="A35" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>569</v>
+        <v>419</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" ht="105.95">
-      <c r="A36" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B36" t="s">
-        <v>570</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" ht="126.85">
+      <c r="A36" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" ht="105.95">
-      <c r="A37" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B37" t="s">
-        <v>571</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" ht="126.85">
+      <c r="A37" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" ht="105.95">
-      <c r="A38" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B38" t="s">
-        <v>572</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>417</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" ht="22.35">
+      <c r="A38" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="39" ht="116.4">
-      <c r="A39" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B39" t="s">
-        <v>573</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" ht="85.05">
+      <c r="A39" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" ht="105.95">
-      <c r="A40" s="11" t="s">
-        <v>422</v>
+      <c r="A40" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="B40" t="s">
-        <v>574</v>
+        <v>618</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="41" ht="158.2">
-      <c r="A41" s="11" t="s">
-        <v>425</v>
+        <v>435</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" ht="105.95">
+      <c r="A41" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B41" t="s">
-        <v>575</v>
+        <v>619</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="42" ht="126.85">
-      <c r="A42" s="11" t="s">
-        <v>428</v>
+        <v>438</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" ht="105.95">
+      <c r="A42" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="B42" t="s">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" ht="105.95">
-      <c r="A43" s="11" t="s">
-        <v>431</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" ht="116.4">
+      <c r="A43" s="9" t="s">
+        <v>443</v>
       </c>
       <c r="B43" t="s">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>433</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" ht="105.95">
+      <c r="A44" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" t="s">
+        <v>622</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45" ht="158.2">
+      <c r="A45" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B45" t="s">
+        <v>623</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="46" ht="126.85">
+      <c r="A46" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B46" t="s">
+        <v>624</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" ht="105.95">
+      <c r="A47" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B47" t="s">
+        <v>625</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="12.8">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" ht="12.8">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="12.8">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" ht="32.8">
+      <c r="A5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" ht="168.65">
+      <c r="A6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" ht="220.85">
+      <c r="A7" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" ht="231.3">
+      <c r="A8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" ht="210.4">
+      <c r="A9" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Dialog/dialog.xlsx
+++ b/Original/CN/Dialog/dialog.xlsx
@@ -5,14 +5,13 @@
   <workbookPr autoCompressPictures="1"/>
   <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId3"/>
     <sheet name="rumor" sheetId="2" r:id="rId4"/>
     <sheet name="zone" sheetId="3" r:id="rId5"/>
     <sheet name="unique" sheetId="4" r:id="rId6"/>
-    <sheet name="asmr" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="578">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -275,33 +274,6 @@
     <t xml:space="preserve">Okay sweetie, I need #1 Orens in front.</t>
   </si>
   <si>
-    <t xml:space="preserve">blooming1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ほう、ぬしの仲間はよく熟れておるな？ 長い旅で育まれた絆が、今まさに花開こうとしておるぞ。わっちが手助けしてやらぬこともないが…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hmph, your companion seems well ripened indeed. The bond you’ve nurtured through your travels is ready to blossom. Perhaps I shall help it along...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blooming2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フホホホホホホ、咲けぃ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muwohohohohohoho, BLOOM!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blooming3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フホホ、 ぬしの誠意次第じゃな。 わっちを喜ばせてみせるがよい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muwohoho. Your sincerity shall decide my favor. Delight me, if you dare.</t>
-  </si>
-  <si>
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
@@ -351,15 +323,6 @@
   </si>
   <si>
     <t xml:space="preserve">If you were just a little more charming, perhaps.#newline(#1 charisma required)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inviteReq1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1を持ってきて{くれ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you give me #1?</t>
   </si>
   <si>
     <t xml:space="preserve">talk_hobby</t>
@@ -1419,104 +1382,6 @@
 Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
   </si>
   <si>
-    <t xml:space="preserve">namamani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なんだこの場所は？
-神々なんて、ただ人間より少し強くて傲慢なだけじゃないか。
-人間の行動は、常に感情の誤作動に導かれる。
-機械が壊れるのは設計の責任だろう？
-機械はやがて人間の代わりに地上を支配するだろう。
-自分が作ったモノは全て覚えている。例外などない。
-…神などという不合理な存在を認めるものか。
-なぜ、ここには私が二人いる？
-退屈な場所だ。ただ一点、私が二人いることをのぞけばな…
-…ああ、この腕か？ もちろん自分で取り替えたぞ。
-私が神々の座を狙っている…？ ふん、面白い冗談だ。お前の頭を分解してみたいよ。
-…やけに猫が多いな。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is this place?
-Gods? They're just a little stronger and more arrogant than humans.
-Human behavior is always guided by the malfunction of emotion.
-When a machine breaks down, it’s the fault of its design, isn’t it?
-One day, machines will rule the earth in place of humankind.
-I remember everything I’ve created—without exception. 
-I refuse to acknowledge something as irrational as a god.
-Why are there two of me here?
-What a dull place. Except, of course, for the fact that there are two of me.
-...This arm? Of course I replaced it myself.
-You think I’m after the gods’ throne? Heh, what a funny thought. I’d much rather take your head apart and see how it works.
-...Why are there so many cats here?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">namamani2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おかしい、何も思い出せない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strange... I can't remember anything.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keeper_garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タネローン？ ああ、誰かが庭をそう呼ぶのを聞いたことがあるな。
-なんじゃ、ぬしもわっちに可愛がられたい口か？ 
-時はここでは何の意味も持たぬ。
-ほう、旅人か？ 迷子か？ それとも、 ここがどこかも知らずに歩いてきた愚か者か？
-フホホホ、わっちに挨拶とは律儀なやつじゃ。
-猫は、この世でいちばん尊いのう。
-やがて客はこの庭を忘れ、元いた場所へ、元いた時へと還っていくのじゃ。 
-この庭では、すべての魂が平穏を知るのじゃ。
-庭に招かれた者は皆、永遠の安らぎの欠片を胸に抱き、去っていく。
-フホホ、ぬしにも見えるか？ 水面を漂う花びらのように、時の触れぬ静寂に浮かぶ無数の魂が。
-その静寂の中で眠ったすべての魂を、庭は今も覚えておる。 
-いつか、幸運の女神を思う存分モフりたいものじゃ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanelorn? Ah, I’ve heard someone call this place by that name before.
-What is it? Do you wish to be doted on by me as well?
-Time holds no meaning here.
-Oh? A traveler, a lost one, or perhaps just a fool wandering without knowing where you’ve come?
-Muwohoho... how courteous of you to greet me, mortal.
-Cats truly are the greatest, aren’t they?
-In the end, every guest leaves—forgetting this garden, and returning to where, and when, they once belonged.
-Here in this garden, all souls come to know peace.
-All who wander here leave with a fragment of its eternal calm.
-Here, hearts drift like petals upon still water, untouched by time.
-This garden remembers every soul that has ever found rest within its silence.
-Someday, I shall fluff the Goddess of Fortune to my heart’s content.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erishe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふふ、兄さん、どこにいったの？
-こんにちは、旅の人。ゆっくりしていってください。
-とても平和な場所です。ここにいると、まるで時間を忘れてしまうようで…
-お芝居を見に行く途中で、兄さんとはぐれてしまって。何が起こったのでしょう？
-兄さんも私も、お芝居にはあまり興味はないんです。でも、ザナンでは貴族のたしなみですから。
-知っていましたか…？ アルティハイトには妖精がいるんですよ？
-ああ見えても、兄さんは私がいないとだらしないんですよ、ふふ。
-ロイターさんは、演奏会場で石を投げて、出入り禁止になったことがあるようですね。
-差し入れを持っていくと、ロイターさんったら、いまだに少年みたいに照れるんですよ。
-ロイテル…？ いえ、ロイターさんなら知ってますけど…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hehe, brother, where did you go?
-Hello, traveler. Please, take your time and rest here.
-This is such a peaceful place. Being here almost makes you forget about time itself...
-I got separated from my brother on the way to the play. I wonder what happened?
-Neither of us is really interested in theater, but in Zanan, it’s considered part of a noble’s education.
-Did you know? …There are fairies in Altheheit, you know.
-Even though he doesn’t look it, my brother is hopeless without me, hehe.
-Loyter once threw a stone at a concert hall and got himself banned from entering.
-Whenever I bring Loyter a little gift, he still blushes like a boy.
-Loytel...? I don’t think so, though I do know Loyter.</t>
-  </si>
-  <si>
     <t xml:space="preserve">larnneire</t>
   </si>
   <si>
@@ -2378,205 +2243,6 @@
 That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
   </si>
   <si>
-    <t xml:space="preserve">eyth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…ピー…
-@2…ザザザ…
-@2…ザザ…ガガ…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…bneep…
-@2…zzzzzz…
-@2…zshh…beep……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…なで…なで…
-@2…ぎゅぅーっ…
-@2…ぎゅーーーーっ…
-@2…よし…よし…
-@2…ば…ばか…
-@2…か…勘違いしないでよね…
-@2…べ…べつに…あなたのためじゃ…
-@2…べ…べつに…
-@2…ひ…暇だっただけなんだからね…
-@2…んっ…っしょ…
-@2…い…癒やされなさい…
-@2…ふ…ふあぁぁ…
-@2…えっほ…えっほ…
-@2…迷える…ものたちよ…
-@2…い…癒やし…
-@2…傷ついた…魂を…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…p-pat…pat…
-@2…huuug…
-@2…huuuuuug…
-@2…there you go…there you go…
-@2…y-you idiot…
-@2…d-don’t get the wrong idea, okay…
-@2…i-it’s not like i’m doing this for you or anything…
-@2…i-it’s…really not…
-@2…i just…h-happened to have some time, that’s all…
-@2…mm…there…
-@2…y-you should…let yourself relax…
-@2…f-fuuaaah…
-@2…eh-ho…eh-ho…
-@2…oh…you who wander…
-@2…h-healing…
-@2…for your…wounded souls…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…ゴリ…ゴリゴリ…
-@2…ゴゴゴゴ……
-@2…ズズズ……
-@2…ドシャァ……
-@2…ズシャッ…ズシャァ……
-@2…ガリ…ガリガリ……
-@2…ゴォ……ゴォォ……
-@2…ミシ…ミシミシ……
-@2…バキ……バキバキ……
-@2…ザラ……ザラザラ……
-@2…ゴン……ゴン……
-@2…ズン……ズゥン……
-@2…ドゥン……
-@2…フハハハハハハハ……
-@2…フハハ……フハァ……
-@2…フハーン……
-@2…フフ……フハ……
-@3フハハハハハハハハハハハハハ！ 
-@3フハーン
-@2…フフ……
-@2…フー…！…フー…！……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…grrr…grind grind…
-@2…goooogoooo……
-@2…rumble……
-@2…crashhh……
-@2…shrrk…shraaa……
-@2…scrape…scrrrape……
-@2…gooo……grooo……
-@2…creak…craaack……
-@2…crack…crack crack……
-@2…grain…grind grind……
-@2…thud……thud……
-@2…boom……booom……
-@2…dunn……
-@2…muwahaha…
-@2…mwahahahaha…
-@2…muhan…
-@2…muwaha…muwaha…
-@3MUWAHAHAHAHAHAHAHA!
-@3MUHAN
-@2…muha……
-@2…mu…ha……mu…ha……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…大丈夫…ママがちゃんとそばにいるからね…
-@2…おやすみ…いい子…
-@2…ママのお胸に…もたれてもいいよ…
-@2…ちゃんと生きてるだけで…えらい…
-@2…ほら…頭なでなで…安心して…
-@2…ほら…力を抜いて…
-@2…よしよし…
-@2…このまま…ぬくぬくしていきましょ…
-@2…なで…なで…力、抜いて…
-@2…ん…よしよし…いい子…
-@2…ぬくぬく…このまま…
-@2…もう…何も考えなくて…
-@2…ふわふわでしょう…落ち着くわね…
-@2…この尻尾…巻いてあげる…
-@2…ふわ…もふ…ほら…尻尾…
-@2…すり…すり…やさしく…巻くわね…
-@2…ぬく…ぬく…眠くなる…
-@2…そのまま…くっついて…
-@2…すぅ…はぁ…一緒に…呼吸…
-@2…ママだよ…
-@2…なで…なで…力…抜いて…
-@2…ほら…ぎゅううぅぅぅううっ…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…it’s okay…mommy’s right here with you…
-@2…good night…sweet one…
-@2…you can rest against mommy…it’s okay…
-@2…just being here…is already enough…
-@2…here…gentle head pats…you’re safe…
-@2…that’s it…relax…
-@2…there there…
-@2…let’s stay warm…just like this…
-@2…pat…pat…let it go…
-@2…mm…there there…good one…
-@2…warm…cozy…just like this…
-@2…no more thinking…now…
-@2…fluffy, isn’t it…it calms you…
-@2…i’ll wrap you…with my tail…
-@2…fluff…mofu…here…my tail…
-@2…rub…rub…gently…wrapping you…
-@2…warm…cozy…getting sleepy…
-@2…stay close…like that…
-@2…inhale…exhale…with me…
-@2…it’s mommy…
-@2…pat…pat…let it go…
-@2…there…huuuuuuuuuug…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…ククク……
-@2…クク……
-@2…ク……ククク……
-@2…クク……クク…
-@2…ほら…還れ…
-@2…元素へ……
-@2…還れ…
-@2…元素へ…クク…
-@2…ク…ク…ク……
-@2…ク…ク…
-@2…クク…ク…
-@2…はやく…
-@2…クククク…
-@2…ククククク…
-@2…クク…クク…クク…
-@2………
-@2………
-@2……キウイ…クク…
-@2……
-@2…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…heh heh heh……
-@2…heh heh……
-@2…heh……heh heh……
-@2…heh heh……heh heh…
-@2…now… return…
-@2…to the elements……
-@2…return…
-@2…to the elements… heh heh…
-@2…heh… heh… heh……
-@2…heh… heh…
-@2…heh heh… heh…
-@2…hurry…
-@2…heh heh heh heh…
-@2…heh heh heh heh heh…
-@2…heh heh… heh heh… heh heh…
-@2………
-@2………
-@2……kiwi… heh heh…
-@2……
-@2… </t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -2659,15 +2325,6 @@
     <t xml:space="preserve">这样啊{。}，那请先付{我}#1奥伦{。}。</t>
   </si>
   <si>
-    <t xml:space="preserve">哦，汝的伙伴已经相当成熟了啊？ 在长久旅途期间培育出的牵绊，现在正要迎来绽放的时刻。咱倒是能帮汝一把…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼呵呵呵呵呵呵，绽放吧！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼呵呵，那就要看汝的诚意了。来试着取悦咱吧。</t>
-  </si>
-  <si>
     <t xml:space="preserve">身材不错嘛{。}。{好}，{我}买了{。}。</t>
   </si>
   <si>
@@ -2684,9 +2341,6 @@
   </si>
   <si>
     <t xml:space="preserve">如果{你}更有些魅力的话或许可以{。}。#newline(魅力需要#1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">给{我}把#1拿来吧{。}。</t>
   </si>
   <si>
     <t xml:space="preserve">{我}的兴趣是#1{。}。</t>
@@ -2832,8 +2486,8 @@
   </si>
   <si>
     <t xml:space="preserve">{我}喜欢讨论科学{。}。
-艾斯·泰尔是第七纪的文明{。}。该文明有着高度发达的科学{。}。
-艾斯·泰尔似乎认为魔法和科学是对立的{。}。
+艾斯・泰尔是第七纪的文明{。}。该文明有着高度发达的科学{。}。
+艾斯・泰尔似乎认为魔法和科学是对立的{。}。
 据说在新王国耶鲁，机械人偶正在从事和人类一样的工作{。}。</t>
   </si>
   <si>
@@ -2846,7 +2500,7 @@
     <t xml:space="preserve">{我}对世界形势很感兴趣{。}。
 艾沃达纳是位于东大陆沙漠的强大帝国{。}。
 据说新王国耶鲁是由逃离帝国的奴隶们建立的{。}。
-总感觉泽纳恩被帝国的气息笼罩着{。}。</t>
+总感觉扎南被帝国的气息笼罩着{。}。</t>
   </si>
   <si>
     <t xml:space="preserve">信仰比什么都重要{。}。
@@ -3096,49 +2750,6 @@
 #race啊，在你面前的是活了一千年以上的流放者{。}。</t>
   </si>
   <si>
-    <t xml:space="preserve">这是什么地方？
-所谓的神，不过是比人类稍强，却又更加傲慢的家伙罢了。
-人类的行为，常常会因为感情的影响而出现执行错误。
-机械会损坏该怪设计得有问题吧？
-机械迟早有一天会取代人类统治这个世界吧。
-我记得我创造的一切事物。无一例外。
-…我怎会承认神这种不合理的东西。
-为什么这里有两个我？
-真是个无聊的地方。这地方有两个我的情况除外…
-…你说这只手臂？ 当然是我自己换的。
-你说我觊觎神的宝座…？ 哼，真是可笑。我都想拆开你的脑袋看看了。
-…这里的猫出奇的多啊。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好奇怪，什么都想不起来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔内隆？ 噢，咱确实曾听到过有人这么称呼这个庭院。
-怎么，汝也想被咱宠爱么？ 
-时间在这里毫无意义。
-呵，汝是旅行至此，还是迷路至此？又或者是根本不知这里是哪里就随便闯了进来的笨蛋呢。
-呼呵呵，还特意向咱打招呼，真是有礼貌啊。
-这世间最棒的就是猫了。
-客人们迟早会忘记这个庭院，回到原本的时空。
-所有的灵魂，都可在这个庭院得享安宁。
-被邀请到这个庭院的诸位，都怀着永恒安宁的碎片离开了。
-呼呵呵，汝也看得见吗？那些灵魂就像漂浮在水面上的花瓣一样，漂浮在时间无法触及的寂静中。
-庭院会记得所有曾在那寂静中入睡的灵魂。
-愿有朝一日能尽情抚摸幸运女神呢。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呵呵，哥哥，你去哪里了？
-您好，旅行者。请好好享受在这里的时光吧。
-这里真是个和平的地方。待在这里仿佛都要忘记时间的存在了…
-我在去看戏剧的途中和哥哥走散了。到底发生了什么呢？
-其实哥哥和我都对戏剧没什么兴趣。只不过欣赏戏剧在泽纳恩来说可是一种身为贵族的修养呢。
-你知道吗…？ 亚尔蒂海特似乎有妖精哦？
-别看哥哥那样子，如果没有我的话他可是很邋遢的，呵呵。
-因为罗缇先生向演奏会场扔过石头，所以他被禁止入内了。
-我要是去给罗缇先生送些什么的话，他还是会像少年一样害羞呢。
-罗伊特尔…？ 不，我只认识罗缇先生…</t>
-  </si>
-  <si>
     <t xml:space="preserve">哎呀，你听过那个变成野兽的王子的童话吗？
 我们是来自温戴尔之森的使者。
 为了谒见公正的贾比王，洗清森林和艾莱亚人民蒙受的不白之冤，我们正朝着王都帕罗米亚行进。
@@ -3211,12 +2822,6 @@
     <t xml:space="preserve">我是代理市长诺拉。有什么事吗？</t>
   </si>
   <si>
-    <t xml:space="preserve">哎呀，您找我有什么事吗？
-帕罗米亚是历史悠久的提里斯大国。我很荣幸被这个王宫接纳。
-偶像…？…是异国语言吗？
-在王宫的粉丝……啊……大……大家对我都很好。</t>
-  </si>
-  <si>
     <t xml:space="preserve">我对历史和传承很感兴趣。
 法利斯姐姐一生气就很可怕。
 帕罗米亚的王宫图书馆里有很多藏书，真是好地方。</t>
@@ -3243,7 +2848,7 @@
   </si>
   <si>
     <t xml:space="preserve">要听首歌吗？
-我以前侍奉着泽纳恩的王室，但是，我搞砸了…
+我以前侍奉着扎南的王室，但是，我搞砸了…
 现在米西利亚才是我的故乡。
 看见梅尔文那家伙了吗？我刚好想唱一首歌呢。
 我的妻子是米西利亚最美丽最聪明的人。我简直配不上她。</t>
@@ -3258,7 +2863,7 @@
   <si>
     <t xml:space="preserve">你是什么人？
 虽然冒险者这名字听起来不错，但他们不就是一群不愿工作的流浪汉吗？
-帝国的威胁自不必说，一直小心隐藏着真实意图的泽纳恩也让人毛骨悚然呢。
+帝国的威胁自不必说，一直小心隐藏着真实意图的扎南也让人毛骨悚然呢。
 据说帕罗米亚的泽茵王是有名的君主，而他的儿子贾比王子则是个玩世不恭的公子哥。看来任何国家都会为继承人的问题烦恼啊！</t>
   </si>
   <si>
@@ -3444,98 +3049,6 @@
 那位相信命运引导的冒险者，总感觉很热情呢。
 听说有位吸……猫？的冒险者……？
 米西利亚的魔女面包师，真是太厉害了！既是魔女，又是面包师！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…哔—…
-@2…沙沙沙…
-@2…沙沙…噶噶…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…抚摸…抚摸…
-@2…抱抱…
-@2…紧抱…
-@2…乖…乖…
-@2…笨…笨蛋…
-@2…别…别误会了…
-@2…才…才不是…为了你呢…
-@2…才…才不是…
-@2…只…只是想打发无聊的时间罢了…
-@2…嗯…那里…
-@2…嗯…请放松吧…
-@2…呼…呼—…
-@2…摸摸…摸摸…
-@2…迷茫的…人们啊…
-@2…治…治愈…
-@2…受伤的…灵魂…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…嘎吱…嘎吱嘎吱…
-@2…轰轰轰轰……
-@2…咯吱咯吱……
-@2…垮拉……
-@2…轰隆…哗啦……
-@2…咔哩…咔哩咔哩……
-@2…轰……轰—……
-@2…咯吱…咯吱吱吱……
-@2…咔吧……嘎吧吧……
-@2…喳啦……喳啦喳啦……
-@2…咚……咚……
-@2…咣……咣……
-@2…咚……
-@2…呼哈哈哈哈哈哈哈……
-@2…呼哈哈……呼哈啊……
-@2…呼哈哇……
-@2…呼……呼哈……
-@3呼哈哈哈哈哈哈哈！ 
-@3呼哈哇
-@2…呼呼……
-@2…呼—…！ …呼—…！……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…别怕…妈妈会一直在你身边…
-@2…晚安…好孩子…
-@2…可以来…妈妈怀里哦…
-@2…只是好好活着…就很了不起了…
-@2…来…让我摸摸头…放心吧…
-@2…来…放松下来…
-@2…乖乖…
-@2…就这样…暖暖和和地…
-@2…摸摸…摸摸…力气，放松…
-@2…嗯…乖乖…好孩子…
-@2…就这样…暖暖的…
-@2…什么都…不用想了…
-@2…毛茸茸的…很安心吧…
-@2…用这尾巴…把你卷起来…
-@2…松松…软软…来…尾巴…
-@2…轻轻地…轻轻地…温柔…卷起…
-@2…温暖…温暖…你困了…
-@2…就这样…紧贴在一起…
-@2…吸…哈啊…一起…呼吸…
-@2…妈妈在哦…
-@2…摸摸…摸摸…力气，放松…
-@2…来…*紧紧抱住*…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@2…呵呵呵……
-@2…呵呵……
-@2…呵……呵呵呵……
-@2…呵呵……呵呵…
-@2…来吧……回去……
-@2…回到元素之中……
-@2…回去……
-@2…回到元素之中……呵呵……
-@2…呵……呵……呵……
-@2…呵……呵……
-@2…呵呵……呵……
-@2…快点……
-@2…呵呵呵呵……
-@2…呵呵呵呵呵……
-@2…呵呵……呵呵……呵呵……
-@2………
-@2………
-@2……奇异果……呵呵……
-@2……
-@2… </t>
   </si>
 </sst>
 </file>
@@ -3586,13 +3099,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family/>
@@ -3603,6 +3109,13 @@
       <color rgb="FF000000"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3654,7 +3167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -3675,10 +3188,6 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="1"/>
@@ -3691,19 +3200,31 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -3790,9 +3311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3802,7 +3323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49660200" cy="119520"/>
+          <a:ext cx="49664160" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3940,14 +3461,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B82" sqref="B82"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B78" sqref="B78"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
@@ -3980,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3994,7 +3515,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -4008,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -4022,7 +3543,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -4036,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -4050,7 +3571,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -4064,7 +3585,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -4078,7 +3599,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -4092,7 +3613,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -4106,7 +3627,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -4115,12 +3636,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -4134,7 +3655,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -4148,7 +3669,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -4162,7 +3683,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -4176,7 +3697,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -4190,7 +3711,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -4204,7 +3725,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -4218,7 +3739,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -4232,7 +3753,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -4246,7 +3767,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -4260,7 +3781,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -4274,7 +3795,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -4288,7 +3809,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -4302,7 +3823,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -4316,7 +3837,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -4330,7 +3851,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -4339,88 +3860,88 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1">
+    <row r="31" ht="12.8">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>500</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1">
+    <row r="32" ht="22.35">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>501</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" ht="20.1" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B33" t="s">
-        <v>502</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>462</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>463</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" ht="12.8">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>464</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
-        <v>503</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" ht="22.35">
-      <c r="A35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="s">
-        <v>498</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>465</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" t="s">
-        <v>504</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -4428,7 +3949,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -4442,9 +3963,9 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4456,9 +3977,9 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>507</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -4470,9 +3991,9 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>508</v>
-      </c>
-      <c r="C40" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4484,9 +4005,9 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>509</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4498,7 +4019,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -4512,7 +4033,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -4526,7 +4047,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -4540,21 +4061,21 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" ht="12.8">
+    <row r="46" ht="22.35">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -4568,7 +4089,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -4582,7 +4103,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -4596,21 +4117,21 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" ht="22.35">
+    <row r="50" ht="20.1" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -4619,12 +4140,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" ht="12.8">
+    <row r="51" ht="20.1" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -4633,12 +4154,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" ht="12.8">
+    <row r="52" ht="22.35">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -4652,7 +4173,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -4661,12 +4182,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1">
+    <row r="54" ht="12.8">
       <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -4675,26 +4196,26 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1">
+    <row r="55" ht="12.8">
       <c r="A55" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" ht="22.35">
+    <row r="56" ht="12.8">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -4708,7 +4229,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -4722,12 +4243,12 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4736,7 +4257,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -4750,7 +4271,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -4764,7 +4285,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -4778,12 +4299,12 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4792,12 +4313,12 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4806,54 +4327,54 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="65" ht="12.8">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" ht="12.8">
+    <row r="66" ht="32.8">
       <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" ht="12.8">
+    <row r="67" ht="32.8">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4862,54 +4383,54 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>536</v>
-      </c>
-      <c r="C68" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="69" ht="12.8">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>537</v>
-      </c>
-      <c r="C69" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="70" ht="32.8">
+    <row r="70" ht="12.8">
       <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71" ht="32.8">
+    <row r="71" ht="12.8">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4918,12 +4439,12 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4932,21 +4453,21 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" ht="12.8">
+    <row r="74" ht="22.35">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>208</v>
@@ -4960,7 +4481,7 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>211</v>
@@ -4974,7 +4495,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
@@ -4988,7 +4509,7 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>217</v>
@@ -4997,74 +4518,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" ht="22.35">
+    <row r="78" ht="12.8">
       <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>546</v>
-      </c>
-      <c r="C78" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="79" ht="12.8">
-      <c r="A79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" t="s">
-        <v>547</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" ht="12.8">
-      <c r="A80" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B80" t="s">
-        <v>548</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" ht="12.8">
-      <c r="A81" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B81" t="s">
-        <v>549</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="82" ht="12.8">
-      <c r="A82" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B82" t="s">
-        <v>550</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5087,309 +4552,309 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="6" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="6" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
+    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
+    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="12.8">
-      <c r="C2" s="8"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" ht="12.8">
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" ht="12.8">
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" ht="74.6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" ht="43.25">
+      <c r="A6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" ht="43.25">
+      <c r="A7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" ht="43.25">
+      <c r="A8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" ht="43.25">
+      <c r="A9" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B5" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" ht="43.25">
-      <c r="A6" s="6" t="s">
+    <row r="10" ht="74.6">
+      <c r="A10" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" ht="43.25">
-      <c r="A7" s="6" t="s">
+    <row r="11" ht="43.25">
+      <c r="A11" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" ht="43.25">
-      <c r="A8" s="6" t="s">
+    <row r="12" ht="43.25">
+      <c r="A12" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" ht="43.25">
-      <c r="A9" s="6" t="s">
+    <row r="13" ht="95.5">
+      <c r="A13" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" ht="74.6">
-      <c r="A10" s="6" t="s">
+    <row r="14" ht="32.8">
+      <c r="A14" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" ht="43.25">
-      <c r="A11" s="6" t="s">
+    <row r="15" ht="32.8">
+      <c r="A15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="12" ht="43.25">
-      <c r="A12" s="6" t="s">
+    <row r="16" ht="12.8">
+      <c r="A16" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B12" t="s">
-        <v>558</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" ht="95.5">
-      <c r="A13" s="6" t="s">
+    <row r="17" ht="22.35">
+      <c r="A17" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B13" t="s">
-        <v>559</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B17" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="14" ht="32.8">
-      <c r="A14" s="6" t="s">
+    <row r="18" ht="22.35">
+      <c r="A18" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B14" t="s">
-        <v>560</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B18" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" ht="32.8">
-      <c r="A15" s="6" t="s">
+    <row r="19" ht="200.7">
+      <c r="A19" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="16" ht="12.8">
-      <c r="A16" s="6" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" ht="168.65">
+      <c r="A20" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B16" t="s">
-        <v>562</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B20" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" ht="22.35">
-      <c r="A17" s="6" t="s">
+    <row r="21" ht="241.75">
+      <c r="A21" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B17" t="s">
-        <v>563</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="18" ht="22.35">
-      <c r="A18" s="6" t="s">
+    <row r="22" ht="32.8">
+      <c r="A22" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B18" t="s">
-        <v>564</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B22" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="19" ht="200.7">
-      <c r="A19" s="8" t="s">
+    <row r="23" ht="22.35">
+      <c r="A23" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B23" t="s">
+        <v>526</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" ht="168.65">
-      <c r="A20" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B20" t="s">
-        <v>566</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
-      <c r="A21" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B21" t="s">
-        <v>567</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" ht="32.8">
-      <c r="A22" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" t="s">
-        <v>568</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
-      <c r="A23" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" t="s">
-        <v>569</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5411,10 +4876,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -5442,184 +4907,184 @@
     </row>
     <row r="5" ht="64.15">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>528</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" ht="22.35">
       <c r="A7" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" ht="53.7">
       <c r="A12" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" ht="74.6">
       <c r="A13" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" ht="116.4">
       <c r="A14" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>579</v>
+        <v>306</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>536</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" ht="147.75">
       <c r="A15" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>580</v>
+        <v>309</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" ht="116.4">
       <c r="A16" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>581</v>
+        <v>312</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" ht="168.65">
       <c r="A17" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>582</v>
+        <v>315</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5638,14 +5103,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B43" sqref="B43"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -5679,733 +5144,550 @@
     <row r="4" ht="12.8">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="137.3">
+    <row r="5" ht="95.5">
       <c r="A5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" ht="116.4">
+      <c r="A6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" ht="43.25">
+      <c r="A7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" ht="32.8">
+      <c r="A8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" ht="64.15">
+      <c r="A9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B5" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" ht="12.8">
-      <c r="A6" s="1" t="s">
+    <row r="10" ht="22.35">
+      <c r="A10" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="7" ht="126.85">
-      <c r="A7" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" ht="105.95">
-      <c r="A8" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" ht="116.4">
-      <c r="A9" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B9" t="s">
-        <v>587</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" ht="137.3">
-      <c r="A10" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B10" t="s">
-        <v>588</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="11" ht="43.25">
       <c r="A11" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" ht="32.8">
       <c r="A12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" ht="53.7">
+      <c r="A13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" ht="64.15">
+      <c r="A14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8">
+      <c r="A15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" ht="43.25">
+      <c r="A16" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B12" t="s">
-        <v>590</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="13" ht="64.15">
-      <c r="A13" s="1" t="s">
+    <row r="17" ht="32.8">
+      <c r="A17" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B13" t="s">
-        <v>591</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B17" t="s">
+        <v>551</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" ht="22.35">
-      <c r="A14" s="1" t="s">
+    <row r="18" ht="32.8">
+      <c r="A18" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B14" t="s">
-        <v>592</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="15" ht="43.25">
-      <c r="A15" s="1" t="s">
+    <row r="19" ht="32.8">
+      <c r="A19" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B15" t="s">
-        <v>593</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B19" t="s">
+        <v>553</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="16" ht="32.8">
-      <c r="A16" s="1" t="s">
+    <row r="20" ht="44.75">
+      <c r="A20" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B16" t="s">
-        <v>594</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="17" ht="53.7">
-      <c r="A17" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B17" t="s">
-        <v>595</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" ht="64.15">
-      <c r="A18" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" ht="12.8">
-      <c r="A19" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B19" t="s">
-        <v>597</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" ht="43.25">
-      <c r="A20" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" t="s">
-        <v>598</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="21" ht="32.8">
       <c r="A21" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" ht="56.7">
+      <c r="A22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" t="s">
+        <v>556</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" ht="91">
+      <c r="A23" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" t="s">
+        <v>557</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" ht="55.95">
+      <c r="A24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" t="s">
+        <v>558</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8">
+      <c r="A25" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B21" t="s">
-        <v>599</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B25" t="s">
+        <v>559</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="22" ht="32.8">
-      <c r="A22" s="1" t="s">
+    <row r="26" ht="179.1">
+      <c r="A26" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B22" t="s">
-        <v>600</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B26" t="s">
+        <v>560</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="23" ht="32.8">
-      <c r="A23" s="1" t="s">
+    <row r="27" ht="12.8">
+      <c r="A27" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B23" t="s">
-        <v>601</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8">
+      <c r="A28" s="11" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="24" ht="44.75">
-      <c r="A24" s="1" t="s">
+      <c r="B28" t="s">
+        <v>562</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="B24" t="s">
-        <v>602</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D24" s="3" t="s">
+    </row>
+    <row r="29" ht="95.5">
+      <c r="A29" s="11" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="25" ht="32.8">
-      <c r="A25" s="1" t="s">
+      <c r="B29" t="s">
+        <v>563</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="B25" t="s">
-        <v>603</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D25" s="3" t="s">
+    </row>
+    <row r="30" ht="12.8">
+      <c r="A30" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="26" ht="56.7">
-      <c r="A26" s="1" t="s">
+      <c r="B30" t="s">
+        <v>564</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B26" t="s">
-        <v>604</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D26" s="3" t="s">
+    </row>
+    <row r="31" ht="126.85">
+      <c r="A31" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="27" ht="91">
-      <c r="A27" s="1" t="s">
+      <c r="B31" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B27" t="s">
-        <v>605</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D27" s="10" t="s">
+    </row>
+    <row r="32" ht="126.85">
+      <c r="A32" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="28" ht="55.95">
-      <c r="A28" s="1" t="s">
+      <c r="B32" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B28" t="s">
-        <v>606</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="33" ht="126.85">
+      <c r="A33" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="29" ht="13.8">
-      <c r="A29" s="1" t="s">
+      <c r="B33" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B29" t="s">
-        <v>607</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="D33" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="34" ht="22.35">
+      <c r="A34" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="30" ht="179.1">
-      <c r="A30" s="1" t="s">
+      <c r="B34" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B30" t="s">
-        <v>608</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D30" s="3" t="s">
+    </row>
+    <row r="35" ht="85.05">
+      <c r="A35" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="31" ht="12.8">
-      <c r="A31" s="9" t="s">
+      <c r="B35" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B31" t="s">
-        <v>609</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" ht="13.8">
-      <c r="A32" s="9" t="s">
+    </row>
+    <row r="36" ht="105.95">
+      <c r="A36" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B32" t="s">
-        <v>610</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B36" t="s">
+        <v>570</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="33" ht="95.5">
-      <c r="A33" s="9" t="s">
+    <row r="37" ht="105.95">
+      <c r="A37" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B33" t="s">
-        <v>611</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B37" t="s">
+        <v>571</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="34" ht="12.8">
-      <c r="A34" s="1" t="s">
+    <row r="38" ht="105.95">
+      <c r="A38" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="B34" t="s">
-        <v>612</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B38" t="s">
+        <v>572</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="35" ht="126.85">
-      <c r="A35" s="3" t="s">
+    <row r="39" ht="116.4">
+      <c r="A39" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B39" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="36" ht="126.85">
-      <c r="A36" s="3" t="s">
+    <row r="40" ht="105.95">
+      <c r="A40" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B40" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D40" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="37" ht="126.85">
-      <c r="A37" s="3" t="s">
+    <row r="41" ht="158.2">
+      <c r="A41" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B41" t="s">
+        <v>575</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D41" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="38" ht="22.35">
-      <c r="A38" s="3" t="s">
+    <row r="42" ht="126.85">
+      <c r="A42" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B42" t="s">
+        <v>576</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="39" ht="85.05">
-      <c r="A39" s="3" t="s">
+    <row r="43" ht="105.95">
+      <c r="A43" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B43" t="s">
+        <v>577</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="40" ht="105.95">
-      <c r="A40" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B40" t="s">
-        <v>618</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="41" ht="105.95">
-      <c r="A41" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B41" t="s">
-        <v>619</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="42" ht="105.95">
-      <c r="A42" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="B42" t="s">
-        <v>620</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" ht="116.4">
-      <c r="A43" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B43" t="s">
-        <v>621</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="44" ht="105.95">
-      <c r="A44" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="B44" t="s">
-        <v>622</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="45" ht="158.2">
-      <c r="A45" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B45" t="s">
-        <v>623</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="46" ht="126.85">
-      <c r="A46" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B46" t="s">
-        <v>624</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="47" ht="105.95">
-      <c r="A47" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B47" t="s">
-        <v>625</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B9" sqref="B9"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
-  <cols>
-    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="12.8">
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" ht="12.8">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" ht="12.8">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" ht="32.8">
-      <c r="A5" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B5" t="s">
-        <v>626</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" ht="168.65">
-      <c r="A6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" t="s">
-        <v>627</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" ht="220.85">
-      <c r="A7" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B7" t="s">
-        <v>628</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" ht="231.3">
-      <c r="A8" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8" t="s">
-        <v>629</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" ht="210.4">
-      <c r="A9" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>
